--- a/data/Field_Measurements.xlsx
+++ b/data/Field_Measurements.xlsx
@@ -1,31 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Apple_Orchard\Lailiang_Cheng\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E0CC10-4F6A-4D50-842C-CE083FE7969F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA063312-BB1F-49C4-974E-E3A8E79B5C62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4164" yWindow="-17388" windowWidth="30936" windowHeight="17040" tabRatio="656" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cornell_Orchard" sheetId="1" r:id="rId1"/>
-    <sheet name="Tree" sheetId="2" r:id="rId2"/>
+    <sheet name="Tree_Adjusted_w_CloudCompare" sheetId="2" r:id="rId2"/>
     <sheet name="Yield_Data_Preliminary_Test" sheetId="3" r:id="rId3"/>
-    <sheet name="Row13" sheetId="4" r:id="rId4"/>
-    <sheet name="Tree1" sheetId="5" r:id="rId5"/>
-    <sheet name="Tree2" sheetId="6" r:id="rId6"/>
-    <sheet name="Tree3" sheetId="7" r:id="rId7"/>
-    <sheet name="Tree4" sheetId="8" r:id="rId8"/>
-    <sheet name="Tree5" sheetId="9" r:id="rId9"/>
-    <sheet name="Tree6" sheetId="10" r:id="rId10"/>
-    <sheet name="Tree7" sheetId="11" r:id="rId11"/>
-    <sheet name="Tree8" sheetId="12" r:id="rId12"/>
-    <sheet name="Tree9" sheetId="13" r:id="rId13"/>
+    <sheet name="Row13" sheetId="16" r:id="rId4"/>
+    <sheet name="Row13_Adjusted_w_CloudCompare" sheetId="4" r:id="rId5"/>
+    <sheet name="Tree1" sheetId="5" r:id="rId6"/>
+    <sheet name="Tree2" sheetId="6" r:id="rId7"/>
+    <sheet name="Tree3" sheetId="7" r:id="rId8"/>
+    <sheet name="Tree4" sheetId="8" r:id="rId9"/>
+    <sheet name="Tree5" sheetId="9" r:id="rId10"/>
+    <sheet name="Tree6" sheetId="10" r:id="rId11"/>
+    <sheet name="Tree7" sheetId="11" r:id="rId12"/>
+    <sheet name="Tree8" sheetId="12" r:id="rId13"/>
+    <sheet name="Tree9" sheetId="13" r:id="rId14"/>
+    <sheet name="TreeA" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="51">
   <si>
     <t>11 TS (Geno Snap Dragon - NY1)</t>
   </si>
@@ -196,16 +198,33 @@
   <si>
     <t>Green</t>
   </si>
+  <si>
+    <t>A</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -251,8 +270,46 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -275,6 +332,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFE06666"/>
         <bgColor rgb="FFE06666"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -664,160 +727,197 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{932F0B34-016D-4230-AD3E-93CB5AA29C9E}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1733,7 +1833,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Row13'!$E$19</c:f>
+              <c:f>Row13_Adjusted_w_CloudCompare!$E$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1763,7 +1863,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Row13'!$E$6:$E$16</c:f>
+              <c:f>Row13_Adjusted_w_CloudCompare!$E$6:$E$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1805,7 +1905,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Row13'!$E$20:$E$32</c:f>
+              <c:f>Row13_Adjusted_w_CloudCompare!$E$20:$E$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1863,7 +1963,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Row13'!$E$35</c:f>
+              <c:f>Row13_Adjusted_w_CloudCompare!$E$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1893,7 +1993,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Row13'!$E$6:$E$16</c:f>
+              <c:f>Row13_Adjusted_w_CloudCompare!$E$6:$E$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1935,7 +2035,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Row13'!$E$36:$E$45</c:f>
+              <c:f>Row13_Adjusted_w_CloudCompare!$E$36:$E$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1984,7 +2084,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Row13'!$L$5</c:f>
+              <c:f>Row13_Adjusted_w_CloudCompare!$L$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2014,7 +2114,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Row13'!$E$6:$E$16</c:f>
+              <c:f>Row13_Adjusted_w_CloudCompare!$E$6:$E$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2056,7 +2156,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Row13'!$L$6:$L$16</c:f>
+              <c:f>Row13_Adjusted_w_CloudCompare!$L$6:$L$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2108,7 +2208,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Row13'!$L$19</c:f>
+              <c:f>Row13_Adjusted_w_CloudCompare!$L$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2138,7 +2238,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Row13'!$E$6:$E$16</c:f>
+              <c:f>Row13_Adjusted_w_CloudCompare!$E$6:$E$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2180,7 +2280,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Row13'!$L$20:$L$30</c:f>
+              <c:f>Row13_Adjusted_w_CloudCompare!$L$20:$L$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2232,7 +2332,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Row13'!$L$35</c:f>
+              <c:f>Row13_Adjusted_w_CloudCompare!$L$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2262,7 +2362,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Row13'!$E$6:$E$16</c:f>
+              <c:f>Row13_Adjusted_w_CloudCompare!$E$6:$E$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2304,7 +2404,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Row13'!$L$36:$L$43</c:f>
+              <c:f>Row13_Adjusted_w_CloudCompare!$L$36:$L$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2347,7 +2447,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Row13'!$S$5</c:f>
+              <c:f>Row13_Adjusted_w_CloudCompare!$S$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2377,7 +2477,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Row13'!$E$6:$E$16</c:f>
+              <c:f>Row13_Adjusted_w_CloudCompare!$E$6:$E$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2419,7 +2519,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Row13'!$S$6:$S$16</c:f>
+              <c:f>Row13_Adjusted_w_CloudCompare!$S$6:$S$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2471,7 +2571,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Row13'!$S$19</c:f>
+              <c:f>Row13_Adjusted_w_CloudCompare!$S$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2505,7 +2605,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Row13'!$E$6:$E$16</c:f>
+              <c:f>Row13_Adjusted_w_CloudCompare!$E$6:$E$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2547,7 +2647,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Row13'!$S$20:$S$31</c:f>
+              <c:f>Row13_Adjusted_w_CloudCompare!$S$20:$S$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2602,11 +2702,11 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Row13'!$S$35</c:f>
+              <c:f>Row13_Adjusted_w_CloudCompare!$S$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2636,7 +2736,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Row13'!$E$6:$E$16</c:f>
+              <c:f>Row13_Adjusted_w_CloudCompare!$E$6:$E$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2678,7 +2778,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Row13'!$S$36:$S$46</c:f>
+              <c:f>Row13_Adjusted_w_CloudCompare!$S$36:$S$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2993,10 +3093,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame macro="">
@@ -3228,19 +3328,19 @@
   </sheetPr>
   <dimension ref="A1:AB998"/>
   <sheetViews>
-    <sheetView topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="C122" sqref="C122:D122"/>
+    <sheetView topLeftCell="A113" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C121" sqref="C121:G154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="62"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="68"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -3249,12 +3349,12 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
-      <c r="M1" s="60" t="s">
+      <c r="M1" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="62"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="68"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
@@ -3273,11 +3373,11 @@
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="63" t="s">
+      <c r="E2" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="64"/>
-      <c r="G2" s="65"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="71"/>
       <c r="H2" s="2"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -3305,11 +3405,11 @@
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="66" t="s">
+      <c r="E3" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="67"/>
-      <c r="G3" s="68"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="74"/>
       <c r="H3" s="2"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -34126,13 +34226,246 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="75">
+        <v>5</v>
+      </c>
+      <c r="B2" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="32">
+        <v>67.8</v>
+      </c>
+      <c r="E2" s="32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="76"/>
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="32">
+        <v>56.4</v>
+      </c>
+      <c r="E3" s="32">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="76"/>
+      <c r="B4" s="8">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="32">
+        <v>61.8</v>
+      </c>
+      <c r="E4" s="32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="76"/>
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="59">
+        <v>101.6</v>
+      </c>
+      <c r="E5" s="32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="76"/>
+      <c r="B6" s="8">
+        <v>2</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="32">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="E6" s="32">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="76"/>
+      <c r="B7" s="8">
+        <v>2</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="32">
+        <v>108.2</v>
+      </c>
+      <c r="E7" s="32">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="76"/>
+      <c r="B8" s="8">
+        <v>2</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="32">
+        <v>51</v>
+      </c>
+      <c r="E8" s="32">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="76"/>
+      <c r="B9" s="8">
+        <v>2</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="32">
+        <v>89.5</v>
+      </c>
+      <c r="E9" s="32">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="76"/>
+      <c r="B10" s="8">
+        <v>3</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="32">
+        <v>89.5</v>
+      </c>
+      <c r="E10" s="32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="76"/>
+      <c r="B11" s="8">
+        <v>3</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="32">
+        <v>99.3</v>
+      </c>
+      <c r="E11" s="32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="76"/>
+      <c r="B12" s="8">
+        <v>3</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="32">
+        <v>57.2</v>
+      </c>
+      <c r="E12" s="32">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="76"/>
+      <c r="B13" s="8">
+        <v>3</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="32">
+        <v>67.8</v>
+      </c>
+      <c r="E13" s="32">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="77"/>
+      <c r="B14" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="32">
+        <f>COUNTIF(C2:C13, "&lt;&gt;")</f>
+        <v>12</v>
+      </c>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -34156,7 +34489,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="69">
+      <c r="A2" s="75">
         <v>6</v>
       </c>
       <c r="B2" s="8">
@@ -34173,7 +34506,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="70"/>
+      <c r="A3" s="76"/>
       <c r="B3" s="8">
         <v>1</v>
       </c>
@@ -34188,7 +34521,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="70"/>
+      <c r="A4" s="76"/>
       <c r="B4" s="8">
         <v>1</v>
       </c>
@@ -34203,7 +34536,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="70"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="8">
         <v>1</v>
       </c>
@@ -34218,7 +34551,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="70"/>
+      <c r="A6" s="76"/>
       <c r="B6" s="8">
         <v>2</v>
       </c>
@@ -34233,7 +34566,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="70"/>
+      <c r="A7" s="76"/>
       <c r="B7" s="8">
         <v>2</v>
       </c>
@@ -34248,7 +34581,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="70"/>
+      <c r="A8" s="76"/>
       <c r="B8" s="8">
         <v>2</v>
       </c>
@@ -34263,7 +34596,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="70"/>
+      <c r="A9" s="76"/>
       <c r="B9" s="8">
         <v>2</v>
       </c>
@@ -34278,7 +34611,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="70"/>
+      <c r="A10" s="76"/>
       <c r="B10" s="8">
         <v>3</v>
       </c>
@@ -34293,7 +34626,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="70"/>
+      <c r="A11" s="76"/>
       <c r="B11" s="8">
         <v>3</v>
       </c>
@@ -34308,7 +34641,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="70"/>
+      <c r="A12" s="76"/>
       <c r="B12" s="8">
         <v>3</v>
       </c>
@@ -34323,7 +34656,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="70"/>
+      <c r="A13" s="76"/>
       <c r="B13" s="8">
         <v>3</v>
       </c>
@@ -34338,7 +34671,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="70"/>
+      <c r="A14" s="76"/>
       <c r="B14" s="32">
         <v>4</v>
       </c>
@@ -34353,7 +34686,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="71"/>
+      <c r="A15" s="77"/>
       <c r="B15" s="32" t="s">
         <v>18</v>
       </c>
@@ -34372,15 +34705,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -34403,7 +34736,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="69">
+      <c r="A2" s="75">
         <v>7</v>
       </c>
       <c r="B2" s="8">
@@ -34420,7 +34753,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="70"/>
+      <c r="A3" s="76"/>
       <c r="B3" s="8">
         <v>1</v>
       </c>
@@ -34435,7 +34768,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="70"/>
+      <c r="A4" s="76"/>
       <c r="B4" s="8">
         <v>1</v>
       </c>
@@ -34450,7 +34783,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="70"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="8">
         <v>1</v>
       </c>
@@ -34465,7 +34798,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="70"/>
+      <c r="A6" s="76"/>
       <c r="B6" s="8">
         <v>2</v>
       </c>
@@ -34480,7 +34813,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="70"/>
+      <c r="A7" s="76"/>
       <c r="B7" s="8">
         <v>2</v>
       </c>
@@ -34495,7 +34828,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="70"/>
+      <c r="A8" s="76"/>
       <c r="B8" s="8">
         <v>2</v>
       </c>
@@ -34510,7 +34843,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="70"/>
+      <c r="A9" s="76"/>
       <c r="B9" s="8">
         <v>2</v>
       </c>
@@ -34525,7 +34858,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="70"/>
+      <c r="A10" s="76"/>
       <c r="B10" s="8">
         <v>3</v>
       </c>
@@ -34540,7 +34873,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="70"/>
+      <c r="A11" s="76"/>
       <c r="B11" s="8">
         <v>3</v>
       </c>
@@ -34555,7 +34888,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="70"/>
+      <c r="A12" s="76"/>
       <c r="B12" s="8">
         <v>3</v>
       </c>
@@ -34570,7 +34903,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="71"/>
+      <c r="A13" s="77"/>
       <c r="B13" s="32" t="s">
         <v>18</v>
       </c>
@@ -34590,7 +34923,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -34598,7 +34931,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="C9" sqref="C6:C9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -34621,7 +34954,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="69">
+      <c r="A2" s="75">
         <v>8</v>
       </c>
       <c r="B2" s="8">
@@ -34638,7 +34971,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="70"/>
+      <c r="A3" s="76"/>
       <c r="B3" s="8">
         <v>1</v>
       </c>
@@ -34653,7 +34986,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="70"/>
+      <c r="A4" s="76"/>
       <c r="B4" s="8">
         <v>1</v>
       </c>
@@ -34668,7 +35001,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="70"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="8">
         <v>1</v>
       </c>
@@ -34683,7 +35016,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="70"/>
+      <c r="A6" s="76"/>
       <c r="B6" s="8">
         <v>2</v>
       </c>
@@ -34698,7 +35031,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="70"/>
+      <c r="A7" s="76"/>
       <c r="B7" s="8">
         <v>2</v>
       </c>
@@ -34713,7 +35046,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="70"/>
+      <c r="A8" s="76"/>
       <c r="B8" s="8">
         <v>2</v>
       </c>
@@ -34728,7 +35061,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="70"/>
+      <c r="A9" s="76"/>
       <c r="B9" s="8">
         <v>2</v>
       </c>
@@ -34743,7 +35076,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="70"/>
+      <c r="A10" s="76"/>
       <c r="B10" s="8">
         <v>3</v>
       </c>
@@ -34758,7 +35091,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="71"/>
+      <c r="A11" s="77"/>
       <c r="B11" s="32" t="s">
         <v>18</v>
       </c>
@@ -34777,15 +35110,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -34808,7 +35141,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="69">
+      <c r="A2" s="75">
         <v>9</v>
       </c>
       <c r="B2" s="8">
@@ -34820,12 +35153,12 @@
       <c r="D2" s="32">
         <v>88.5</v>
       </c>
-      <c r="E2" s="32">
-        <v>30</v>
+      <c r="E2" s="59">
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="70"/>
+      <c r="A3" s="76"/>
       <c r="B3" s="8">
         <v>1</v>
       </c>
@@ -34840,7 +35173,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="70"/>
+      <c r="A4" s="76"/>
       <c r="B4" s="8">
         <v>1</v>
       </c>
@@ -34855,7 +35188,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="70"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="8">
         <v>1</v>
       </c>
@@ -34870,7 +35203,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="70"/>
+      <c r="A6" s="76"/>
       <c r="B6" s="8">
         <v>2</v>
       </c>
@@ -34885,7 +35218,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="70"/>
+      <c r="A7" s="76"/>
       <c r="B7" s="8">
         <v>2</v>
       </c>
@@ -34900,7 +35233,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="70"/>
+      <c r="A8" s="76"/>
       <c r="B8" s="8">
         <v>2</v>
       </c>
@@ -34915,7 +35248,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="70"/>
+      <c r="A9" s="76"/>
       <c r="B9" s="8">
         <v>2</v>
       </c>
@@ -34930,7 +35263,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="70"/>
+      <c r="A10" s="76"/>
       <c r="B10" s="8">
         <v>3</v>
       </c>
@@ -34945,7 +35278,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="70"/>
+      <c r="A11" s="76"/>
       <c r="B11" s="8">
         <v>3</v>
       </c>
@@ -34960,7 +35293,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="70"/>
+      <c r="A12" s="76"/>
       <c r="B12" s="8">
         <v>3</v>
       </c>
@@ -34975,7 +35308,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="70"/>
+      <c r="A13" s="76"/>
       <c r="B13" s="32">
         <v>3</v>
       </c>
@@ -34990,7 +35323,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="71"/>
+      <c r="A14" s="77"/>
       <c r="B14" s="32" t="s">
         <v>18</v>
       </c>
@@ -35006,6 +35339,380 @@
     <mergeCell ref="A2:A14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EFB7ADC-B6CC-4E6B-A9D8-A2E605DC8649}">
+  <dimension ref="A1:G22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="9.140625" style="63"/>
+    <col min="7" max="7" width="15.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="65"/>
+    </row>
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="85" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="36">
+        <v>1</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="61">
+        <v>80</v>
+      </c>
+      <c r="E2" s="60">
+        <v>0</v>
+      </c>
+      <c r="G2" s="65"/>
+    </row>
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="86"/>
+      <c r="B3" s="36">
+        <v>1</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="61">
+        <v>78</v>
+      </c>
+      <c r="E3" s="60">
+        <v>0</v>
+      </c>
+      <c r="G3" s="65"/>
+    </row>
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="86"/>
+      <c r="B4" s="36">
+        <v>1</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="61">
+        <v>75</v>
+      </c>
+      <c r="E4" s="60">
+        <v>0</v>
+      </c>
+      <c r="G4" s="65"/>
+    </row>
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="86"/>
+      <c r="B5" s="36">
+        <v>1</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="61">
+        <v>60</v>
+      </c>
+      <c r="E5" s="60">
+        <v>0</v>
+      </c>
+      <c r="G5" s="65"/>
+    </row>
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="86"/>
+      <c r="B6" s="36">
+        <v>2</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="61">
+        <v>85</v>
+      </c>
+      <c r="E6" s="60">
+        <v>0</v>
+      </c>
+      <c r="G6" s="65"/>
+    </row>
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="86"/>
+      <c r="B7" s="36">
+        <v>2</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="61">
+        <v>87</v>
+      </c>
+      <c r="E7" s="60">
+        <v>0</v>
+      </c>
+      <c r="G7" s="65"/>
+    </row>
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="86"/>
+      <c r="B8" s="36">
+        <v>2</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="61">
+        <v>50</v>
+      </c>
+      <c r="E8" s="60">
+        <v>0</v>
+      </c>
+      <c r="G8" s="65"/>
+    </row>
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="86"/>
+      <c r="B9" s="36">
+        <v>2</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="61">
+        <v>90</v>
+      </c>
+      <c r="E9" s="60">
+        <v>0</v>
+      </c>
+      <c r="G9" s="65"/>
+    </row>
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="86"/>
+      <c r="B10" s="36">
+        <v>3</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="61">
+        <v>71</v>
+      </c>
+      <c r="E10" s="60">
+        <v>0</v>
+      </c>
+      <c r="G10" s="65"/>
+    </row>
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="86"/>
+      <c r="B11" s="36">
+        <v>3</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="61">
+        <v>85</v>
+      </c>
+      <c r="E11" s="60">
+        <v>0</v>
+      </c>
+      <c r="G11" s="65"/>
+    </row>
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="86"/>
+      <c r="B12" s="36">
+        <v>3</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="61">
+        <v>65</v>
+      </c>
+      <c r="E12" s="60">
+        <v>0</v>
+      </c>
+      <c r="G12" s="65"/>
+    </row>
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="86"/>
+      <c r="B13" s="60">
+        <v>3</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="61">
+        <v>53</v>
+      </c>
+      <c r="E13" s="60">
+        <v>0</v>
+      </c>
+      <c r="G13" s="65"/>
+    </row>
+    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="86"/>
+      <c r="B14" s="36">
+        <v>4</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="61">
+        <v>48</v>
+      </c>
+      <c r="E14" s="60">
+        <v>0</v>
+      </c>
+      <c r="G14" s="65"/>
+    </row>
+    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="86"/>
+      <c r="B15" s="36">
+        <v>4</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="61">
+        <v>76</v>
+      </c>
+      <c r="E15" s="60">
+        <v>0</v>
+      </c>
+      <c r="G15" s="65"/>
+    </row>
+    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="86"/>
+      <c r="B16" s="36">
+        <v>4</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="61">
+        <v>64</v>
+      </c>
+      <c r="E16" s="60">
+        <v>0</v>
+      </c>
+      <c r="G16" s="65"/>
+    </row>
+    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="86"/>
+      <c r="B17" s="36">
+        <v>4</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="61">
+        <v>61</v>
+      </c>
+      <c r="E17" s="60">
+        <v>0</v>
+      </c>
+      <c r="G17" s="65"/>
+    </row>
+    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="86"/>
+      <c r="B18" s="64">
+        <v>5</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="61">
+        <v>37</v>
+      </c>
+      <c r="E18" s="60">
+        <v>0</v>
+      </c>
+      <c r="G18" s="65"/>
+    </row>
+    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="86"/>
+      <c r="B19" s="64">
+        <v>5</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="61">
+        <v>61</v>
+      </c>
+      <c r="E19" s="60">
+        <v>0</v>
+      </c>
+      <c r="G19" s="65"/>
+    </row>
+    <row r="20" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="86"/>
+      <c r="B20" s="64">
+        <v>5</v>
+      </c>
+      <c r="C20" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="61">
+        <v>57</v>
+      </c>
+      <c r="E20" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="86"/>
+      <c r="B21" s="64">
+        <v>5</v>
+      </c>
+      <c r="C21" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="61">
+        <v>37</v>
+      </c>
+      <c r="E21" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="86"/>
+      <c r="B22" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="36">
+        <f>COUNTIF(C2:C21, "&lt;&gt;")</f>
+        <v>20</v>
+      </c>
+      <c r="D22" s="61"/>
+      <c r="E22" s="60"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A22"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -35016,8 +35723,8 @@
   </sheetPr>
   <dimension ref="A1:K149"/>
   <sheetViews>
-    <sheetView topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="C116" sqref="C116:D116"/>
+    <sheetView topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A130" sqref="A130:XFD130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -35078,7 +35785,7 @@
         <v>51</v>
       </c>
       <c r="G2" s="40">
-        <f t="shared" ref="G2:G6" si="1">(E2+F2)/2</f>
+        <f>(E2+F2)/2</f>
         <v>52</v>
       </c>
       <c r="H2" s="41"/>
@@ -35107,7 +35814,7 @@
         <v>40</v>
       </c>
       <c r="G3" s="40">
-        <f t="shared" si="1"/>
+        <f>(E3+F3)/2</f>
         <v>41</v>
       </c>
       <c r="H3" s="41"/>
@@ -35136,7 +35843,7 @@
         <v>61</v>
       </c>
       <c r="G4" s="40">
-        <f t="shared" si="1"/>
+        <f>(E4+F4)/2</f>
         <v>59.5</v>
       </c>
       <c r="H4" s="41"/>
@@ -35165,7 +35872,7 @@
         <v>46</v>
       </c>
       <c r="G5" s="40">
-        <f t="shared" si="1"/>
+        <f>(E5+F5)/2</f>
         <v>45.5</v>
       </c>
       <c r="H5" s="41"/>
@@ -35194,7 +35901,7 @@
         <v>45</v>
       </c>
       <c r="G6" s="40">
-        <f t="shared" si="1"/>
+        <f>(E6+F6)/2</f>
         <v>44.5</v>
       </c>
       <c r="H6" s="41"/>
@@ -35216,11 +35923,11 @@
       <c r="F7" s="36"/>
       <c r="G7" s="36"/>
       <c r="H7" s="42">
-        <f t="shared" ref="H7:I7" si="2">COUNTIF(H2:H6,"&lt;&gt;")</f>
+        <f t="shared" ref="H7:I7" si="1">COUNTIF(H2:H6,"&lt;&gt;")</f>
         <v>0</v>
       </c>
       <c r="I7" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J7" s="36"/>
@@ -35240,7 +35947,7 @@
         <v>141</v>
       </c>
       <c r="D8" s="40">
-        <f t="shared" ref="D8:D16" si="3">CONVERT(C8, "in","cm")</f>
+        <f t="shared" ref="D8:D16" si="2">CONVERT(C8, "in","cm")</f>
         <v>358.14</v>
       </c>
       <c r="E8" s="40">
@@ -35250,7 +35957,7 @@
         <v>58</v>
       </c>
       <c r="G8" s="40">
-        <f t="shared" ref="G8:G16" si="4">(E8+F8)/2</f>
+        <f t="shared" ref="G8:G16" si="3">(E8+F8)/2</f>
         <v>60</v>
       </c>
       <c r="H8" s="41"/>
@@ -35269,7 +35976,7 @@
         <v>137</v>
       </c>
       <c r="D9" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>347.98</v>
       </c>
       <c r="E9" s="40">
@@ -35279,7 +35986,7 @@
         <v>51</v>
       </c>
       <c r="G9" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>55</v>
       </c>
       <c r="H9" s="41"/>
@@ -35298,7 +36005,7 @@
         <v>127</v>
       </c>
       <c r="D10" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>322.58</v>
       </c>
       <c r="E10" s="40">
@@ -35308,7 +36015,7 @@
         <v>49</v>
       </c>
       <c r="G10" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>49</v>
       </c>
       <c r="H10" s="41"/>
@@ -35327,7 +36034,7 @@
         <v>149</v>
       </c>
       <c r="D11" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>378.46000000000004</v>
       </c>
       <c r="E11" s="40">
@@ -35337,7 +36044,7 @@
         <v>56</v>
       </c>
       <c r="G11" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>59.5</v>
       </c>
       <c r="H11" s="41"/>
@@ -35356,7 +36063,7 @@
         <v>133</v>
       </c>
       <c r="D12" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>337.82</v>
       </c>
       <c r="E12" s="40">
@@ -35366,7 +36073,7 @@
         <v>49</v>
       </c>
       <c r="G12" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>46</v>
       </c>
       <c r="H12" s="41">
@@ -35387,7 +36094,7 @@
         <v>134</v>
       </c>
       <c r="D13" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>340.36</v>
       </c>
       <c r="E13" s="40">
@@ -35397,7 +36104,7 @@
         <v>55</v>
       </c>
       <c r="G13" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>55</v>
       </c>
       <c r="H13" s="41"/>
@@ -35416,7 +36123,7 @@
         <v>152</v>
       </c>
       <c r="D14" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>386.08</v>
       </c>
       <c r="E14" s="40">
@@ -35426,7 +36133,7 @@
         <v>54</v>
       </c>
       <c r="G14" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>55</v>
       </c>
       <c r="H14" s="41"/>
@@ -35445,7 +36152,7 @@
         <v>136</v>
       </c>
       <c r="D15" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>345.44</v>
       </c>
       <c r="E15" s="40">
@@ -35455,7 +36162,7 @@
         <v>60</v>
       </c>
       <c r="G15" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>60.5</v>
       </c>
       <c r="H15" s="41">
@@ -35476,7 +36183,7 @@
         <v>149</v>
       </c>
       <c r="D16" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>378.46000000000004</v>
       </c>
       <c r="E16" s="40">
@@ -35486,7 +36193,7 @@
         <v>60</v>
       </c>
       <c r="G16" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>60.5</v>
       </c>
       <c r="H16" s="41"/>
@@ -35508,11 +36215,11 @@
       <c r="F17" s="36"/>
       <c r="G17" s="36"/>
       <c r="H17" s="41">
-        <f t="shared" ref="H17:I17" si="5">COUNTIF(H8:H16,"&lt;&gt;")</f>
+        <f t="shared" ref="H17:I17" si="4">COUNTIF(H8:H16,"&lt;&gt;")</f>
         <v>2</v>
       </c>
       <c r="I17" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J17" s="36"/>
@@ -36477,11 +37184,11 @@
       <c r="F72" s="36"/>
       <c r="G72" s="36"/>
       <c r="H72" s="41">
-        <f t="shared" ref="H72:I72" si="6">COUNTIF(H18:H71,"&lt;&gt;")</f>
+        <f t="shared" ref="H72:I72" si="5">COUNTIF(H18:H71,"&lt;&gt;")</f>
         <v>5</v>
       </c>
       <c r="I72" s="36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="J72" s="36"/>
@@ -36501,18 +37208,18 @@
         <v>130</v>
       </c>
       <c r="D73" s="36">
-        <f t="shared" ref="D73:D113" si="7">CONVERT(C73, "in","cm")</f>
+        <f t="shared" ref="D73:D113" si="6">CONVERT(C73, "in","cm")</f>
         <v>330.2</v>
       </c>
-      <c r="E73" s="36">
-        <v>70</v>
-      </c>
-      <c r="F73" s="36">
-        <v>78</v>
-      </c>
-      <c r="G73" s="36">
-        <f t="shared" ref="G73:G113" si="8">ROUND((E73+F73)/2, 1)</f>
-        <v>74</v>
+      <c r="E73" s="89">
+        <v>57</v>
+      </c>
+      <c r="F73" s="89">
+        <v>60</v>
+      </c>
+      <c r="G73" s="89">
+        <f t="shared" ref="G73:G113" si="7">ROUND((E73+F73)/2, 1)</f>
+        <v>58.5</v>
       </c>
       <c r="H73" s="37"/>
       <c r="I73" s="37"/>
@@ -36530,18 +37237,18 @@
         <v>127</v>
       </c>
       <c r="D74" s="36">
+        <f t="shared" si="6"/>
+        <v>322.58</v>
+      </c>
+      <c r="E74" s="89">
+        <v>60</v>
+      </c>
+      <c r="F74" s="89">
+        <v>47</v>
+      </c>
+      <c r="G74" s="89">
         <f t="shared" si="7"/>
-        <v>322.58</v>
-      </c>
-      <c r="E74" s="36">
-        <v>64</v>
-      </c>
-      <c r="F74" s="36">
-        <v>64</v>
-      </c>
-      <c r="G74" s="36">
-        <f t="shared" si="8"/>
-        <v>64</v>
+        <v>53.5</v>
       </c>
       <c r="H74" s="43"/>
       <c r="I74" s="36"/>
@@ -36559,18 +37266,18 @@
         <v>122</v>
       </c>
       <c r="D75" s="36">
+        <f t="shared" si="6"/>
+        <v>309.88</v>
+      </c>
+      <c r="E75" s="89">
+        <v>48</v>
+      </c>
+      <c r="F75" s="89">
+        <v>56</v>
+      </c>
+      <c r="G75" s="89">
         <f t="shared" si="7"/>
-        <v>309.88</v>
-      </c>
-      <c r="E75" s="36">
-        <v>58</v>
-      </c>
-      <c r="F75" s="36">
-        <v>60</v>
-      </c>
-      <c r="G75" s="36">
-        <f t="shared" si="8"/>
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="H75" s="43"/>
       <c r="I75" s="36"/>
@@ -36588,7 +37295,7 @@
         <v>121</v>
       </c>
       <c r="D76" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>307.33999999999997</v>
       </c>
       <c r="E76" s="36">
@@ -36598,7 +37305,7 @@
         <v>57</v>
       </c>
       <c r="G76" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>57.5</v>
       </c>
       <c r="H76" s="43"/>
@@ -36617,18 +37324,18 @@
         <v>126</v>
       </c>
       <c r="D77" s="36">
+        <f t="shared" si="6"/>
+        <v>320.04000000000002</v>
+      </c>
+      <c r="E77" s="89">
+        <v>68</v>
+      </c>
+      <c r="F77" s="89">
+        <v>64</v>
+      </c>
+      <c r="G77" s="89">
         <f t="shared" si="7"/>
-        <v>320.04000000000002</v>
-      </c>
-      <c r="E77" s="36">
-        <v>61</v>
-      </c>
-      <c r="F77" s="36">
-        <v>63</v>
-      </c>
-      <c r="G77" s="36">
-        <f t="shared" si="8"/>
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="H77" s="43"/>
       <c r="I77" s="36"/>
@@ -36646,18 +37353,18 @@
         <v>125</v>
       </c>
       <c r="D78" s="36">
+        <f t="shared" si="6"/>
+        <v>317.5</v>
+      </c>
+      <c r="E78" s="89">
+        <v>71</v>
+      </c>
+      <c r="F78" s="89">
+        <v>65</v>
+      </c>
+      <c r="G78" s="89">
         <f t="shared" si="7"/>
-        <v>317.5</v>
-      </c>
-      <c r="E78" s="36">
-        <v>69</v>
-      </c>
-      <c r="F78" s="36">
-        <v>65</v>
-      </c>
-      <c r="G78" s="36">
-        <f t="shared" si="8"/>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H78" s="43"/>
       <c r="I78" s="36"/>
@@ -36675,18 +37382,18 @@
         <v>114</v>
       </c>
       <c r="D79" s="36">
+        <f t="shared" si="6"/>
+        <v>289.56</v>
+      </c>
+      <c r="E79" s="89">
+        <v>47</v>
+      </c>
+      <c r="F79" s="89">
+        <v>56</v>
+      </c>
+      <c r="G79" s="89">
         <f t="shared" si="7"/>
-        <v>289.56</v>
-      </c>
-      <c r="E79" s="36">
-        <v>47</v>
-      </c>
-      <c r="F79" s="36">
-        <v>48</v>
-      </c>
-      <c r="G79" s="36">
-        <f t="shared" si="8"/>
-        <v>47.5</v>
+        <v>51.5</v>
       </c>
       <c r="H79" s="43"/>
       <c r="I79" s="36"/>
@@ -36704,7 +37411,7 @@
         <v>122</v>
       </c>
       <c r="D80" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>309.88</v>
       </c>
       <c r="E80" s="36">
@@ -36714,7 +37421,7 @@
         <v>52</v>
       </c>
       <c r="G80" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>51</v>
       </c>
       <c r="H80" s="43"/>
@@ -36733,7 +37440,7 @@
         <v>120</v>
       </c>
       <c r="D81" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>304.8</v>
       </c>
       <c r="E81" s="36">
@@ -36743,7 +37450,7 @@
         <v>55</v>
       </c>
       <c r="G81" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>56</v>
       </c>
       <c r="H81" s="43"/>
@@ -36762,7 +37469,7 @@
         <v>121</v>
       </c>
       <c r="D82" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>307.33999999999997</v>
       </c>
       <c r="E82" s="36">
@@ -36772,7 +37479,7 @@
         <v>61</v>
       </c>
       <c r="G82" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>58</v>
       </c>
       <c r="H82" s="43"/>
@@ -36791,18 +37498,18 @@
         <v>129</v>
       </c>
       <c r="D83" s="36">
+        <f t="shared" si="6"/>
+        <v>327.66000000000003</v>
+      </c>
+      <c r="E83" s="89">
+        <v>52</v>
+      </c>
+      <c r="F83" s="89">
+        <v>50</v>
+      </c>
+      <c r="G83" s="89">
         <f t="shared" si="7"/>
-        <v>327.66000000000003</v>
-      </c>
-      <c r="E83" s="36">
-        <v>44</v>
-      </c>
-      <c r="F83" s="36">
-        <v>48</v>
-      </c>
-      <c r="G83" s="36">
-        <f t="shared" si="8"/>
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H83" s="43"/>
       <c r="I83" s="36"/>
@@ -36820,18 +37527,18 @@
         <v>115</v>
       </c>
       <c r="D84" s="36">
+        <f t="shared" si="6"/>
+        <v>292.09999999999997</v>
+      </c>
+      <c r="E84" s="89">
+        <v>50</v>
+      </c>
+      <c r="F84" s="89">
+        <v>51</v>
+      </c>
+      <c r="G84" s="89">
         <f t="shared" si="7"/>
-        <v>292.09999999999997</v>
-      </c>
-      <c r="E84" s="36">
-        <v>46</v>
-      </c>
-      <c r="F84" s="36">
-        <v>48</v>
-      </c>
-      <c r="G84" s="36">
-        <f t="shared" si="8"/>
-        <v>47</v>
+        <v>50.5</v>
       </c>
       <c r="H84" s="43"/>
       <c r="I84" s="36"/>
@@ -36849,7 +37556,7 @@
         <v>119</v>
       </c>
       <c r="D85" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>302.26</v>
       </c>
       <c r="E85" s="36">
@@ -36859,7 +37566,7 @@
         <v>52</v>
       </c>
       <c r="G85" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
       <c r="H85" s="43"/>
@@ -36878,7 +37585,7 @@
         <v>125</v>
       </c>
       <c r="D86" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>317.5</v>
       </c>
       <c r="E86" s="36">
@@ -36888,7 +37595,7 @@
         <v>56</v>
       </c>
       <c r="G86" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>52.5</v>
       </c>
       <c r="H86" s="43"/>
@@ -36907,7 +37614,7 @@
         <v>122</v>
       </c>
       <c r="D87" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>309.88</v>
       </c>
       <c r="E87" s="36">
@@ -36917,7 +37624,7 @@
         <v>55</v>
       </c>
       <c r="G87" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>52.5</v>
       </c>
       <c r="H87" s="43"/>
@@ -36936,7 +37643,7 @@
         <v>127</v>
       </c>
       <c r="D88" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>322.58</v>
       </c>
       <c r="E88" s="36">
@@ -36946,7 +37653,7 @@
         <v>47</v>
       </c>
       <c r="G88" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>47</v>
       </c>
       <c r="H88" s="43"/>
@@ -36965,7 +37672,7 @@
         <v>125</v>
       </c>
       <c r="D89" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>317.5</v>
       </c>
       <c r="E89" s="36">
@@ -36975,7 +37682,7 @@
         <v>63</v>
       </c>
       <c r="G89" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>59</v>
       </c>
       <c r="H89" s="43"/>
@@ -36994,7 +37701,7 @@
         <v>112</v>
       </c>
       <c r="D90" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>284.48</v>
       </c>
       <c r="E90" s="36">
@@ -37004,7 +37711,7 @@
         <v>45</v>
       </c>
       <c r="G90" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>42</v>
       </c>
       <c r="H90" s="43"/>
@@ -37023,7 +37730,7 @@
         <v>130</v>
       </c>
       <c r="D91" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>330.2</v>
       </c>
       <c r="E91" s="36">
@@ -37033,7 +37740,7 @@
         <v>61</v>
       </c>
       <c r="G91" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>60</v>
       </c>
       <c r="H91" s="43"/>
@@ -37052,7 +37759,7 @@
         <v>130</v>
       </c>
       <c r="D92" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>330.2</v>
       </c>
       <c r="E92" s="36">
@@ -37062,7 +37769,7 @@
         <v>62</v>
       </c>
       <c r="G92" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>62</v>
       </c>
       <c r="H92" s="43"/>
@@ -37081,7 +37788,7 @@
         <v>126</v>
       </c>
       <c r="D93" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>320.04000000000002</v>
       </c>
       <c r="E93" s="36">
@@ -37091,7 +37798,7 @@
         <v>46</v>
       </c>
       <c r="G93" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>48</v>
       </c>
       <c r="H93" s="43"/>
@@ -37110,7 +37817,7 @@
         <v>128</v>
       </c>
       <c r="D94" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>325.12</v>
       </c>
       <c r="E94" s="36">
@@ -37120,7 +37827,7 @@
         <v>61</v>
       </c>
       <c r="G94" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>60</v>
       </c>
       <c r="H94" s="43"/>
@@ -37139,7 +37846,7 @@
         <v>134</v>
       </c>
       <c r="D95" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>340.36</v>
       </c>
       <c r="E95" s="36">
@@ -37149,7 +37856,7 @@
         <v>69</v>
       </c>
       <c r="G95" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>68</v>
       </c>
       <c r="H95" s="43"/>
@@ -37168,7 +37875,7 @@
         <v>115</v>
       </c>
       <c r="D96" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>292.09999999999997</v>
       </c>
       <c r="E96" s="36">
@@ -37178,7 +37885,7 @@
         <v>54</v>
       </c>
       <c r="G96" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>54</v>
       </c>
       <c r="H96" s="43"/>
@@ -37197,7 +37904,7 @@
         <v>124</v>
       </c>
       <c r="D97" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>314.95999999999998</v>
       </c>
       <c r="E97" s="36">
@@ -37207,7 +37914,7 @@
         <v>60</v>
       </c>
       <c r="G97" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>57.5</v>
       </c>
       <c r="H97" s="43"/>
@@ -37226,7 +37933,7 @@
         <v>134</v>
       </c>
       <c r="D98" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>340.36</v>
       </c>
       <c r="E98" s="36">
@@ -37236,7 +37943,7 @@
         <v>55</v>
       </c>
       <c r="G98" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>54</v>
       </c>
       <c r="H98" s="43"/>
@@ -37255,7 +37962,7 @@
         <v>126</v>
       </c>
       <c r="D99" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>320.04000000000002</v>
       </c>
       <c r="E99" s="36">
@@ -37265,7 +37972,7 @@
         <v>57</v>
       </c>
       <c r="G99" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>59</v>
       </c>
       <c r="H99" s="43"/>
@@ -37284,7 +37991,7 @@
         <v>126</v>
       </c>
       <c r="D100" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>320.04000000000002</v>
       </c>
       <c r="E100" s="36">
@@ -37294,7 +38001,7 @@
         <v>59</v>
       </c>
       <c r="G100" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>57</v>
       </c>
       <c r="H100" s="43"/>
@@ -37313,7 +38020,7 @@
         <v>123</v>
       </c>
       <c r="D101" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>312.42</v>
       </c>
       <c r="E101" s="36">
@@ -37323,7 +38030,7 @@
         <v>49</v>
       </c>
       <c r="G101" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>47</v>
       </c>
       <c r="H101" s="43"/>
@@ -37342,7 +38049,7 @@
         <v>127</v>
       </c>
       <c r="D102" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>322.58</v>
       </c>
       <c r="E102" s="36">
@@ -37352,7 +38059,7 @@
         <v>58</v>
       </c>
       <c r="G102" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>55</v>
       </c>
       <c r="H102" s="43"/>
@@ -37371,7 +38078,7 @@
         <v>128</v>
       </c>
       <c r="D103" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>325.12</v>
       </c>
       <c r="E103" s="36">
@@ -37381,7 +38088,7 @@
         <v>51</v>
       </c>
       <c r="G103" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
       <c r="H103" s="43"/>
@@ -37400,7 +38107,7 @@
         <v>115</v>
       </c>
       <c r="D104" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>292.09999999999997</v>
       </c>
       <c r="E104" s="36">
@@ -37410,7 +38117,7 @@
         <v>44</v>
       </c>
       <c r="G104" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>45</v>
       </c>
       <c r="H104" s="43">
@@ -37431,7 +38138,7 @@
         <v>132</v>
       </c>
       <c r="D105" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>335.28</v>
       </c>
       <c r="E105" s="36">
@@ -37441,7 +38148,7 @@
         <v>54</v>
       </c>
       <c r="G105" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>52</v>
       </c>
       <c r="H105" s="43"/>
@@ -37460,7 +38167,7 @@
         <v>120</v>
       </c>
       <c r="D106" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>304.8</v>
       </c>
       <c r="E106" s="36">
@@ -37470,7 +38177,7 @@
         <v>47</v>
       </c>
       <c r="G106" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>47.5</v>
       </c>
       <c r="H106" s="43"/>
@@ -37489,7 +38196,7 @@
         <v>124</v>
       </c>
       <c r="D107" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>314.95999999999998</v>
       </c>
       <c r="E107" s="36">
@@ -37499,7 +38206,7 @@
         <v>48</v>
       </c>
       <c r="G107" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>47</v>
       </c>
       <c r="H107" s="43"/>
@@ -37518,7 +38225,7 @@
         <v>95</v>
       </c>
       <c r="D108" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>241.29999999999998</v>
       </c>
       <c r="E108" s="36">
@@ -37528,7 +38235,7 @@
         <v>44</v>
       </c>
       <c r="G108" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>42</v>
       </c>
       <c r="H108" s="43"/>
@@ -37547,7 +38254,7 @@
         <v>125</v>
       </c>
       <c r="D109" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>317.5</v>
       </c>
       <c r="E109" s="36">
@@ -37557,7 +38264,7 @@
         <v>51</v>
       </c>
       <c r="G109" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
       <c r="H109" s="43"/>
@@ -37576,7 +38283,7 @@
         <v>114</v>
       </c>
       <c r="D110" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>289.56</v>
       </c>
       <c r="E110" s="36">
@@ -37586,7 +38293,7 @@
         <v>48</v>
       </c>
       <c r="G110" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>46.5</v>
       </c>
       <c r="H110" s="43"/>
@@ -37605,7 +38312,7 @@
         <v>122</v>
       </c>
       <c r="D111" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>309.88</v>
       </c>
       <c r="E111" s="36">
@@ -37615,7 +38322,7 @@
         <v>47</v>
       </c>
       <c r="G111" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>47</v>
       </c>
       <c r="H111" s="43"/>
@@ -37634,7 +38341,7 @@
         <v>132</v>
       </c>
       <c r="D112" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>335.28</v>
       </c>
       <c r="E112" s="36">
@@ -37644,7 +38351,7 @@
         <v>49</v>
       </c>
       <c r="G112" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>51</v>
       </c>
       <c r="H112" s="43">
@@ -37665,7 +38372,7 @@
         <v>122</v>
       </c>
       <c r="D113" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>309.88</v>
       </c>
       <c r="E113" s="36">
@@ -37675,7 +38382,7 @@
         <v>56</v>
       </c>
       <c r="G113" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>53.5</v>
       </c>
       <c r="H113" s="43">
@@ -37699,11 +38406,11 @@
       <c r="F114" s="36"/>
       <c r="G114" s="36"/>
       <c r="H114" s="43">
-        <f t="shared" ref="H114:I114" si="9">COUNTIF(H73:H113,"&lt;&gt;")</f>
+        <f t="shared" ref="H114:I114" si="8">COUNTIF(H73:H113,"&lt;&gt;")</f>
         <v>3</v>
       </c>
       <c r="I114" s="36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J114" s="36"/>
@@ -37723,7 +38430,7 @@
         <v>125</v>
       </c>
       <c r="D115" s="36">
-        <f t="shared" ref="D115:D148" si="10">CONVERT(C115, "in","cm")</f>
+        <f t="shared" ref="D115:D148" si="9">CONVERT(C115, "in","cm")</f>
         <v>317.5</v>
       </c>
       <c r="E115" s="36">
@@ -37733,7 +38440,7 @@
         <v>57</v>
       </c>
       <c r="G115" s="36">
-        <f t="shared" ref="G115:G148" si="11">ROUND((E115+F115)/2, 1)</f>
+        <f t="shared" ref="G115:G148" si="10">ROUND((E115+F115)/2, 1)</f>
         <v>58.5</v>
       </c>
       <c r="H115" s="43"/>
@@ -37752,7 +38459,7 @@
         <v>129</v>
       </c>
       <c r="D116" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>327.66000000000003</v>
       </c>
       <c r="E116" s="36">
@@ -37762,7 +38469,7 @@
         <v>64</v>
       </c>
       <c r="G116" s="36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>66.5</v>
       </c>
       <c r="H116" s="43"/>
@@ -37781,7 +38488,7 @@
         <v>128</v>
       </c>
       <c r="D117" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>325.12</v>
       </c>
       <c r="E117" s="36">
@@ -37791,7 +38498,7 @@
         <v>70</v>
       </c>
       <c r="G117" s="36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>65</v>
       </c>
       <c r="H117" s="43"/>
@@ -37810,7 +38517,7 @@
         <v>124</v>
       </c>
       <c r="D118" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>314.95999999999998</v>
       </c>
       <c r="E118" s="36">
@@ -37820,7 +38527,7 @@
         <v>51</v>
       </c>
       <c r="G118" s="36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>52.5</v>
       </c>
       <c r="H118" s="43"/>
@@ -37839,7 +38546,7 @@
         <v>113</v>
       </c>
       <c r="D119" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>287.02</v>
       </c>
       <c r="E119" s="36">
@@ -37849,7 +38556,7 @@
         <v>41</v>
       </c>
       <c r="G119" s="36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>42.5</v>
       </c>
       <c r="H119" s="43"/>
@@ -37868,7 +38575,7 @@
         <v>124</v>
       </c>
       <c r="D120" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>314.95999999999998</v>
       </c>
       <c r="E120" s="36">
@@ -37878,7 +38585,7 @@
         <v>51</v>
       </c>
       <c r="G120" s="36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>50</v>
       </c>
       <c r="H120" s="43">
@@ -37899,7 +38606,7 @@
         <v>120</v>
       </c>
       <c r="D121" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>304.8</v>
       </c>
       <c r="E121" s="36">
@@ -37909,7 +38616,7 @@
         <v>49</v>
       </c>
       <c r="G121" s="36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>49.5</v>
       </c>
       <c r="H121" s="43">
@@ -37937,7 +38644,7 @@
         <v>115</v>
       </c>
       <c r="D122" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>292.09999999999997</v>
       </c>
       <c r="E122" s="36">
@@ -37947,7 +38654,7 @@
         <v>53</v>
       </c>
       <c r="G122" s="36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>51.5</v>
       </c>
       <c r="H122" s="43">
@@ -37968,7 +38675,7 @@
         <v>127</v>
       </c>
       <c r="D123" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>322.58</v>
       </c>
       <c r="E123" s="36">
@@ -37978,7 +38685,7 @@
         <v>58</v>
       </c>
       <c r="G123" s="36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>59</v>
       </c>
       <c r="H123" s="43">
@@ -37999,7 +38706,7 @@
         <v>123</v>
       </c>
       <c r="D124" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>312.42</v>
       </c>
       <c r="E124" s="36">
@@ -38009,7 +38716,7 @@
         <v>51</v>
       </c>
       <c r="G124" s="36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>52.5</v>
       </c>
       <c r="H124" s="43">
@@ -38030,7 +38737,7 @@
         <v>127</v>
       </c>
       <c r="D125" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>322.58</v>
       </c>
       <c r="E125" s="36">
@@ -38040,7 +38747,7 @@
         <v>58</v>
       </c>
       <c r="G125" s="36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>61</v>
       </c>
       <c r="H125" s="43"/>
@@ -38059,7 +38766,7 @@
         <v>124</v>
       </c>
       <c r="D126" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>314.95999999999998</v>
       </c>
       <c r="E126" s="36">
@@ -38069,7 +38776,7 @@
         <v>66</v>
       </c>
       <c r="G126" s="36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>66</v>
       </c>
       <c r="H126" s="43"/>
@@ -38088,7 +38795,7 @@
         <v>125</v>
       </c>
       <c r="D127" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>317.5</v>
       </c>
       <c r="E127" s="36">
@@ -38098,7 +38805,7 @@
         <v>66</v>
       </c>
       <c r="G127" s="36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>68</v>
       </c>
       <c r="H127" s="43"/>
@@ -38117,7 +38824,7 @@
         <v>124</v>
       </c>
       <c r="D128" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>314.95999999999998</v>
       </c>
       <c r="E128" s="36">
@@ -38127,7 +38834,7 @@
         <v>54</v>
       </c>
       <c r="G128" s="36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>59</v>
       </c>
       <c r="H128" s="43"/>
@@ -38146,7 +38853,7 @@
         <v>126</v>
       </c>
       <c r="D129" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>320.04000000000002</v>
       </c>
       <c r="E129" s="36">
@@ -38156,7 +38863,7 @@
         <v>60</v>
       </c>
       <c r="G129" s="36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>62</v>
       </c>
       <c r="H129" s="43"/>
@@ -38175,18 +38882,18 @@
         <v>121</v>
       </c>
       <c r="D130" s="36">
+        <f t="shared" si="9"/>
+        <v>307.33999999999997</v>
+      </c>
+      <c r="E130" s="89">
+        <v>58</v>
+      </c>
+      <c r="F130" s="89">
+        <v>60</v>
+      </c>
+      <c r="G130" s="89">
         <f t="shared" si="10"/>
-        <v>307.33999999999997</v>
-      </c>
-      <c r="E130" s="36">
-        <v>51</v>
-      </c>
-      <c r="F130" s="36">
-        <v>51</v>
-      </c>
-      <c r="G130" s="36">
-        <f t="shared" si="11"/>
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="H130" s="43"/>
       <c r="I130" s="36"/>
@@ -38204,7 +38911,7 @@
         <v>109</v>
       </c>
       <c r="D131" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>276.86</v>
       </c>
       <c r="E131" s="36">
@@ -38214,7 +38921,7 @@
         <v>49</v>
       </c>
       <c r="G131" s="36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>49.5</v>
       </c>
       <c r="H131" s="43"/>
@@ -38233,7 +38940,7 @@
         <v>120</v>
       </c>
       <c r="D132" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>304.8</v>
       </c>
       <c r="E132" s="36">
@@ -38243,7 +38950,7 @@
         <v>61</v>
       </c>
       <c r="G132" s="36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>58.5</v>
       </c>
       <c r="H132" s="43"/>
@@ -38262,7 +38969,7 @@
         <v>117</v>
       </c>
       <c r="D133" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>297.18</v>
       </c>
       <c r="E133" s="36">
@@ -38272,7 +38979,7 @@
         <v>52</v>
       </c>
       <c r="G133" s="36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>53</v>
       </c>
       <c r="H133" s="43">
@@ -38293,7 +39000,7 @@
         <v>120</v>
       </c>
       <c r="D134" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>304.8</v>
       </c>
       <c r="E134" s="36">
@@ -38303,7 +39010,7 @@
         <v>54</v>
       </c>
       <c r="G134" s="36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>53</v>
       </c>
       <c r="H134" s="43">
@@ -38324,7 +39031,7 @@
         <v>125</v>
       </c>
       <c r="D135" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>317.5</v>
       </c>
       <c r="E135" s="36">
@@ -38334,7 +39041,7 @@
         <v>65</v>
       </c>
       <c r="G135" s="36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>63.5</v>
       </c>
       <c r="H135" s="43"/>
@@ -38353,7 +39060,7 @@
         <v>116</v>
       </c>
       <c r="D136" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>294.64</v>
       </c>
       <c r="E136" s="36">
@@ -38363,7 +39070,7 @@
         <v>56</v>
       </c>
       <c r="G136" s="36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>56</v>
       </c>
       <c r="H136" s="43"/>
@@ -38382,7 +39089,7 @@
         <v>125</v>
       </c>
       <c r="D137" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>317.5</v>
       </c>
       <c r="E137" s="36">
@@ -38392,7 +39099,7 @@
         <v>51</v>
       </c>
       <c r="G137" s="36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>52.5</v>
       </c>
       <c r="H137" s="43"/>
@@ -38411,7 +39118,7 @@
         <v>130</v>
       </c>
       <c r="D138" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>330.2</v>
       </c>
       <c r="E138" s="36">
@@ -38421,7 +39128,7 @@
         <v>60</v>
       </c>
       <c r="G138" s="36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>57</v>
       </c>
       <c r="H138" s="43">
@@ -38449,7 +39156,7 @@
         <v>137</v>
       </c>
       <c r="D139" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>347.98</v>
       </c>
       <c r="E139" s="36">
@@ -38459,7 +39166,7 @@
         <v>63</v>
       </c>
       <c r="G139" s="36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>63.5</v>
       </c>
       <c r="H139" s="43"/>
@@ -38478,7 +39185,7 @@
         <v>140</v>
       </c>
       <c r="D140" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>355.6</v>
       </c>
       <c r="E140" s="36">
@@ -38488,7 +39195,7 @@
         <v>56</v>
       </c>
       <c r="G140" s="36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>57</v>
       </c>
       <c r="H140" s="43">
@@ -38516,7 +39223,7 @@
         <v>116</v>
       </c>
       <c r="D141" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>294.64</v>
       </c>
       <c r="E141" s="36">
@@ -38526,7 +39233,7 @@
         <v>51</v>
       </c>
       <c r="G141" s="36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>53</v>
       </c>
       <c r="H141" s="43">
@@ -38547,7 +39254,7 @@
         <v>124</v>
       </c>
       <c r="D142" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>314.95999999999998</v>
       </c>
       <c r="E142" s="36">
@@ -38557,7 +39264,7 @@
         <v>50</v>
       </c>
       <c r="G142" s="36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>49.5</v>
       </c>
       <c r="H142" s="43"/>
@@ -38576,7 +39283,7 @@
         <v>121</v>
       </c>
       <c r="D143" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>307.33999999999997</v>
       </c>
       <c r="E143" s="36">
@@ -38586,7 +39293,7 @@
         <v>55</v>
       </c>
       <c r="G143" s="36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>55</v>
       </c>
       <c r="H143" s="43">
@@ -38607,7 +39314,7 @@
         <v>119</v>
       </c>
       <c r="D144" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>302.26</v>
       </c>
       <c r="E144" s="36">
@@ -38617,7 +39324,7 @@
         <v>52</v>
       </c>
       <c r="G144" s="36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>53</v>
       </c>
       <c r="H144" s="43">
@@ -38638,7 +39345,7 @@
         <v>130</v>
       </c>
       <c r="D145" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>330.2</v>
       </c>
       <c r="E145" s="36">
@@ -38648,7 +39355,7 @@
         <v>60</v>
       </c>
       <c r="G145" s="36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>61.5</v>
       </c>
       <c r="H145" s="43"/>
@@ -38667,7 +39374,7 @@
         <v>124</v>
       </c>
       <c r="D146" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>314.95999999999998</v>
       </c>
       <c r="E146" s="36">
@@ -38677,7 +39384,7 @@
         <v>63</v>
       </c>
       <c r="G146" s="36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>61.5</v>
       </c>
       <c r="H146" s="43"/>
@@ -38696,7 +39403,7 @@
         <v>113</v>
       </c>
       <c r="D147" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>287.02</v>
       </c>
       <c r="E147" s="36">
@@ -38706,7 +39413,7 @@
         <v>42</v>
       </c>
       <c r="G147" s="36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>44</v>
       </c>
       <c r="H147" s="43"/>
@@ -38725,7 +39432,7 @@
         <v>119</v>
       </c>
       <c r="D148" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>302.26</v>
       </c>
       <c r="E148" s="36">
@@ -38735,7 +39442,7 @@
         <v>67</v>
       </c>
       <c r="G148" s="36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>67</v>
       </c>
       <c r="H148" s="43"/>
@@ -38757,11 +39464,11 @@
       <c r="F149" s="36"/>
       <c r="G149" s="36"/>
       <c r="H149" s="43">
-        <f t="shared" ref="H149:I149" si="12">COUNTIF(H115:H148,"&lt;&gt;")</f>
+        <f t="shared" ref="H149:I149" si="11">COUNTIF(H115:H148,"&lt;&gt;")</f>
         <v>12</v>
       </c>
       <c r="I149" s="36">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="J149" s="36"/>
@@ -38772,6 +39479,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -39241,26 +39949,1982 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F82503C9-84EA-459C-A4FF-015F8119CA15}">
+  <dimension ref="A1:S48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="S36" sqref="S36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="98"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="104" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="97"/>
+    </row>
+    <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="99"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="97"/>
+      <c r="Q2" s="97"/>
+      <c r="R2" s="97"/>
+      <c r="S2" s="97"/>
+    </row>
+    <row r="3" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="90"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="97"/>
+      <c r="O3" s="97"/>
+      <c r="P3" s="97"/>
+      <c r="Q3" s="97"/>
+      <c r="R3" s="97"/>
+      <c r="S3" s="97"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" s="90"/>
+      <c r="B4" s="90"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="90">
+        <v>106</v>
+      </c>
+      <c r="F4" s="90"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="97"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="91"/>
+      <c r="P4" s="90"/>
+      <c r="Q4" s="90"/>
+      <c r="R4" s="90"/>
+      <c r="S4" s="90"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" s="90"/>
+      <c r="B5" s="90"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="90"/>
+      <c r="L5" s="90"/>
+      <c r="M5" s="97"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="90"/>
+      <c r="R5" s="90"/>
+      <c r="S5" s="90"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" s="92" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="92" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="92" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="92" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="92" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="90"/>
+      <c r="G6" s="91"/>
+      <c r="H6" s="94">
+        <v>2</v>
+      </c>
+      <c r="I6" s="92">
+        <v>1</v>
+      </c>
+      <c r="J6" s="92" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="92">
+        <v>67.3</v>
+      </c>
+      <c r="L6" s="92">
+        <v>21</v>
+      </c>
+      <c r="M6" s="97"/>
+      <c r="N6" s="91"/>
+      <c r="O6" s="94">
+        <v>3</v>
+      </c>
+      <c r="P6" s="92">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="92" t="s">
+        <v>46</v>
+      </c>
+      <c r="R6" s="92">
+        <v>87.5</v>
+      </c>
+      <c r="S6" s="92">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" s="94">
+        <v>1</v>
+      </c>
+      <c r="B7" s="92">
+        <v>0</v>
+      </c>
+      <c r="C7" s="92" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="92">
+        <v>73.7</v>
+      </c>
+      <c r="E7" s="92">
+        <v>14</v>
+      </c>
+      <c r="F7" s="90"/>
+      <c r="G7" s="91"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="92">
+        <v>1</v>
+      </c>
+      <c r="J7" s="92" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7" s="92">
+        <v>92.1</v>
+      </c>
+      <c r="L7" s="92">
+        <v>16</v>
+      </c>
+      <c r="M7" s="97"/>
+      <c r="N7" s="91"/>
+      <c r="O7" s="102"/>
+      <c r="P7" s="92">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="92" t="s">
+        <v>48</v>
+      </c>
+      <c r="R7" s="92">
+        <v>104.1</v>
+      </c>
+      <c r="S7" s="92">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" s="102"/>
+      <c r="B8" s="92">
+        <v>1</v>
+      </c>
+      <c r="C8" s="92" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="92">
+        <v>94.3</v>
+      </c>
+      <c r="E8" s="92">
+        <v>22</v>
+      </c>
+      <c r="F8" s="97"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="92">
+        <v>1</v>
+      </c>
+      <c r="J8" s="92" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" s="92">
+        <v>59.4</v>
+      </c>
+      <c r="L8" s="92">
+        <v>11</v>
+      </c>
+      <c r="M8" s="97"/>
+      <c r="N8" s="91"/>
+      <c r="O8" s="102"/>
+      <c r="P8" s="92">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="92" t="s">
+        <v>49</v>
+      </c>
+      <c r="R8" s="92">
+        <v>48.4</v>
+      </c>
+      <c r="S8" s="92">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" s="102"/>
+      <c r="B9" s="92">
+        <v>1</v>
+      </c>
+      <c r="C9" s="92" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="92">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="E9" s="92">
+        <v>22</v>
+      </c>
+      <c r="F9" s="90"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="102"/>
+      <c r="I9" s="92">
+        <v>1</v>
+      </c>
+      <c r="J9" s="92" t="s">
+        <v>47</v>
+      </c>
+      <c r="K9" s="92">
+        <v>64.3</v>
+      </c>
+      <c r="L9" s="92">
+        <v>16</v>
+      </c>
+      <c r="M9" s="97"/>
+      <c r="N9" s="91"/>
+      <c r="O9" s="102"/>
+      <c r="P9" s="92">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="92" t="s">
+        <v>47</v>
+      </c>
+      <c r="R9" s="92">
+        <v>90.7</v>
+      </c>
+      <c r="S9" s="92">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" s="102"/>
+      <c r="B10" s="92">
+        <v>1</v>
+      </c>
+      <c r="C10" s="92" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="92">
+        <v>68.8</v>
+      </c>
+      <c r="E10" s="92">
+        <v>22</v>
+      </c>
+      <c r="F10" s="90"/>
+      <c r="G10" s="91"/>
+      <c r="H10" s="102"/>
+      <c r="I10" s="92">
+        <v>2</v>
+      </c>
+      <c r="J10" s="92" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10" s="92">
+        <v>69.5</v>
+      </c>
+      <c r="L10" s="92">
+        <v>20</v>
+      </c>
+      <c r="M10" s="97"/>
+      <c r="N10" s="91"/>
+      <c r="O10" s="102"/>
+      <c r="P10" s="92">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="92" t="s">
+        <v>46</v>
+      </c>
+      <c r="R10" s="92">
+        <v>63.2</v>
+      </c>
+      <c r="S10" s="92">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" s="102"/>
+      <c r="B11" s="92">
+        <v>1</v>
+      </c>
+      <c r="C11" s="92" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="92">
+        <v>68.8</v>
+      </c>
+      <c r="E11" s="92">
+        <v>14</v>
+      </c>
+      <c r="F11" s="90"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="102"/>
+      <c r="I11" s="92">
+        <v>2</v>
+      </c>
+      <c r="J11" s="92" t="s">
+        <v>48</v>
+      </c>
+      <c r="K11" s="92">
+        <v>94</v>
+      </c>
+      <c r="L11" s="92">
+        <v>13</v>
+      </c>
+      <c r="M11" s="97"/>
+      <c r="N11" s="91"/>
+      <c r="O11" s="102"/>
+      <c r="P11" s="92">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="92" t="s">
+        <v>48</v>
+      </c>
+      <c r="R11" s="92">
+        <v>86.1</v>
+      </c>
+      <c r="S11" s="92">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" s="102"/>
+      <c r="B12" s="92">
+        <v>2</v>
+      </c>
+      <c r="C12" s="92" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="92">
+        <v>63.8</v>
+      </c>
+      <c r="E12" s="92">
+        <v>18</v>
+      </c>
+      <c r="F12" s="90"/>
+      <c r="G12" s="91"/>
+      <c r="H12" s="102"/>
+      <c r="I12" s="92">
+        <v>2</v>
+      </c>
+      <c r="J12" s="92" t="s">
+        <v>49</v>
+      </c>
+      <c r="K12" s="92">
+        <v>45.8</v>
+      </c>
+      <c r="L12" s="92">
+        <v>10</v>
+      </c>
+      <c r="M12" s="97"/>
+      <c r="N12" s="91"/>
+      <c r="O12" s="102"/>
+      <c r="P12" s="92">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="92" t="s">
+        <v>49</v>
+      </c>
+      <c r="R12" s="92">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="S12" s="92">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" s="102"/>
+      <c r="B13" s="92">
+        <v>2</v>
+      </c>
+      <c r="C13" s="92" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="92">
+        <v>75.3</v>
+      </c>
+      <c r="E13" s="92">
+        <v>16</v>
+      </c>
+      <c r="F13" s="90"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="102"/>
+      <c r="I13" s="92">
+        <v>2</v>
+      </c>
+      <c r="J13" s="92" t="s">
+        <v>47</v>
+      </c>
+      <c r="K13" s="92">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="L13" s="92">
+        <v>19</v>
+      </c>
+      <c r="M13" s="97"/>
+      <c r="N13" s="91"/>
+      <c r="O13" s="102"/>
+      <c r="P13" s="92">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="92" t="s">
+        <v>47</v>
+      </c>
+      <c r="R13" s="92">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="S13" s="92">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" s="102"/>
+      <c r="B14" s="92">
+        <v>2</v>
+      </c>
+      <c r="C14" s="92" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="92">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="E14" s="92">
+        <v>14</v>
+      </c>
+      <c r="F14" s="90"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="102"/>
+      <c r="I14" s="92">
+        <v>3</v>
+      </c>
+      <c r="J14" s="92" t="s">
+        <v>46</v>
+      </c>
+      <c r="K14" s="92">
+        <v>58.9</v>
+      </c>
+      <c r="L14" s="92">
+        <v>16</v>
+      </c>
+      <c r="M14" s="97"/>
+      <c r="N14" s="91"/>
+      <c r="O14" s="102"/>
+      <c r="P14" s="92">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="92" t="s">
+        <v>46</v>
+      </c>
+      <c r="R14" s="92">
+        <v>74.8</v>
+      </c>
+      <c r="S14" s="92">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" s="102"/>
+      <c r="B15" s="92">
+        <v>2</v>
+      </c>
+      <c r="C15" s="92" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="105">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="E15" s="92">
+        <v>17</v>
+      </c>
+      <c r="F15" s="90"/>
+      <c r="G15" s="91"/>
+      <c r="H15" s="102"/>
+      <c r="I15" s="92">
+        <v>3</v>
+      </c>
+      <c r="J15" s="92" t="s">
+        <v>48</v>
+      </c>
+      <c r="K15" s="92">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="L15" s="92">
+        <v>12</v>
+      </c>
+      <c r="M15" s="97"/>
+      <c r="N15" s="91"/>
+      <c r="O15" s="102"/>
+      <c r="P15" s="92">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="92" t="s">
+        <v>48</v>
+      </c>
+      <c r="R15" s="92">
+        <v>78.3</v>
+      </c>
+      <c r="S15" s="92">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" s="102"/>
+      <c r="B16" s="92">
+        <v>3</v>
+      </c>
+      <c r="C16" s="92" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="92">
+        <v>59.6</v>
+      </c>
+      <c r="E16" s="92">
+        <v>16</v>
+      </c>
+      <c r="F16" s="90"/>
+      <c r="G16" s="91"/>
+      <c r="H16" s="102"/>
+      <c r="I16" s="92">
+        <v>3</v>
+      </c>
+      <c r="J16" s="92" t="s">
+        <v>49</v>
+      </c>
+      <c r="K16" s="92">
+        <v>63.2</v>
+      </c>
+      <c r="L16" s="92">
+        <v>12</v>
+      </c>
+      <c r="M16" s="97"/>
+      <c r="N16" s="91"/>
+      <c r="O16" s="102"/>
+      <c r="P16" s="92">
+        <v>3</v>
+      </c>
+      <c r="Q16" s="92" t="s">
+        <v>49</v>
+      </c>
+      <c r="R16" s="92">
+        <v>92.5</v>
+      </c>
+      <c r="S16" s="92">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A17" s="102"/>
+      <c r="B17" s="92">
+        <v>3</v>
+      </c>
+      <c r="C17" s="92" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="92">
+        <v>63.9</v>
+      </c>
+      <c r="E17" s="92">
+        <v>15</v>
+      </c>
+      <c r="F17" s="90"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="102"/>
+      <c r="I17" s="92">
+        <v>3</v>
+      </c>
+      <c r="J17" s="92" t="s">
+        <v>47</v>
+      </c>
+      <c r="K17" s="92">
+        <v>89.3</v>
+      </c>
+      <c r="L17" s="92">
+        <v>12</v>
+      </c>
+      <c r="M17" s="97"/>
+      <c r="N17" s="91"/>
+      <c r="O17" s="102"/>
+      <c r="P17" s="92">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="92" t="s">
+        <v>47</v>
+      </c>
+      <c r="R17" s="92">
+        <v>59</v>
+      </c>
+      <c r="S17" s="92">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A18" s="103"/>
+      <c r="B18" s="92" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="92">
+        <v>11</v>
+      </c>
+      <c r="D18" s="92"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="90"/>
+      <c r="G18" s="91"/>
+      <c r="H18" s="103"/>
+      <c r="I18" s="92" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="93">
+        <v>12</v>
+      </c>
+      <c r="K18" s="92"/>
+      <c r="L18" s="92"/>
+      <c r="M18" s="97"/>
+      <c r="N18" s="91"/>
+      <c r="O18" s="103"/>
+      <c r="P18" s="92" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q18" s="92">
+        <v>12</v>
+      </c>
+      <c r="R18" s="92"/>
+      <c r="S18" s="92"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A19" s="91"/>
+      <c r="B19" s="97"/>
+      <c r="C19" s="97"/>
+      <c r="D19" s="90"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="90"/>
+      <c r="G19" s="97"/>
+      <c r="H19" s="97"/>
+      <c r="I19" s="97"/>
+      <c r="J19" s="97"/>
+      <c r="K19" s="97"/>
+      <c r="L19" s="97"/>
+      <c r="M19" s="97"/>
+      <c r="N19" s="97"/>
+      <c r="O19" s="97"/>
+      <c r="P19" s="97"/>
+      <c r="Q19" s="97"/>
+      <c r="R19" s="97"/>
+      <c r="S19" s="97"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A20" s="94">
+        <v>4</v>
+      </c>
+      <c r="B20" s="92">
+        <v>1</v>
+      </c>
+      <c r="C20" s="92" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="92">
+        <v>51</v>
+      </c>
+      <c r="E20" s="92">
+        <v>18</v>
+      </c>
+      <c r="F20" s="90"/>
+      <c r="G20" s="91"/>
+      <c r="H20" s="94">
+        <v>5</v>
+      </c>
+      <c r="I20" s="92">
+        <v>1</v>
+      </c>
+      <c r="J20" s="92" t="s">
+        <v>46</v>
+      </c>
+      <c r="K20" s="92">
+        <v>67.8</v>
+      </c>
+      <c r="L20" s="92">
+        <v>10</v>
+      </c>
+      <c r="M20" s="97"/>
+      <c r="N20" s="91"/>
+      <c r="O20" s="94">
+        <v>6</v>
+      </c>
+      <c r="P20" s="92">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="92" t="s">
+        <v>46</v>
+      </c>
+      <c r="R20" s="92">
+        <v>82.5</v>
+      </c>
+      <c r="S20" s="92">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A21" s="102"/>
+      <c r="B21" s="92">
+        <v>1</v>
+      </c>
+      <c r="C21" s="92" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="92">
+        <v>65.7</v>
+      </c>
+      <c r="E21" s="92">
+        <v>16</v>
+      </c>
+      <c r="F21" s="90"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="102"/>
+      <c r="I21" s="92">
+        <v>1</v>
+      </c>
+      <c r="J21" s="92" t="s">
+        <v>48</v>
+      </c>
+      <c r="K21" s="92">
+        <v>56.4</v>
+      </c>
+      <c r="L21" s="92">
+        <v>12</v>
+      </c>
+      <c r="M21" s="97"/>
+      <c r="N21" s="91"/>
+      <c r="O21" s="102"/>
+      <c r="P21" s="92">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="92" t="s">
+        <v>48</v>
+      </c>
+      <c r="R21" s="92">
+        <v>51.8</v>
+      </c>
+      <c r="S21" s="92">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A22" s="102"/>
+      <c r="B22" s="92">
+        <v>1</v>
+      </c>
+      <c r="C22" s="92" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="105">
+        <v>88.1</v>
+      </c>
+      <c r="E22" s="92">
+        <v>12</v>
+      </c>
+      <c r="F22" s="90"/>
+      <c r="G22" s="91"/>
+      <c r="H22" s="102"/>
+      <c r="I22" s="92">
+        <v>1</v>
+      </c>
+      <c r="J22" s="92" t="s">
+        <v>49</v>
+      </c>
+      <c r="K22" s="92">
+        <v>61.8</v>
+      </c>
+      <c r="L22" s="92">
+        <v>10</v>
+      </c>
+      <c r="M22" s="97"/>
+      <c r="N22" s="91"/>
+      <c r="O22" s="102"/>
+      <c r="P22" s="92">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="92" t="s">
+        <v>49</v>
+      </c>
+      <c r="R22" s="92">
+        <v>88.9</v>
+      </c>
+      <c r="S22" s="92">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A23" s="102"/>
+      <c r="B23" s="92">
+        <v>1</v>
+      </c>
+      <c r="C23" s="92" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="92">
+        <v>86.2</v>
+      </c>
+      <c r="E23" s="92">
+        <v>15</v>
+      </c>
+      <c r="F23" s="90"/>
+      <c r="G23" s="91"/>
+      <c r="H23" s="102"/>
+      <c r="I23" s="92">
+        <v>1</v>
+      </c>
+      <c r="J23" s="92" t="s">
+        <v>47</v>
+      </c>
+      <c r="K23" s="105">
+        <v>87.5</v>
+      </c>
+      <c r="L23" s="92">
+        <v>10</v>
+      </c>
+      <c r="M23" s="97"/>
+      <c r="N23" s="91"/>
+      <c r="O23" s="102"/>
+      <c r="P23" s="92">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="92" t="s">
+        <v>47</v>
+      </c>
+      <c r="R23" s="92">
+        <v>107.2</v>
+      </c>
+      <c r="S23" s="92">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A24" s="102"/>
+      <c r="B24" s="92">
+        <v>2</v>
+      </c>
+      <c r="C24" s="92" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="92">
+        <v>88.7</v>
+      </c>
+      <c r="E24" s="92">
+        <v>18</v>
+      </c>
+      <c r="F24" s="90"/>
+      <c r="G24" s="91"/>
+      <c r="H24" s="102"/>
+      <c r="I24" s="92">
+        <v>2</v>
+      </c>
+      <c r="J24" s="92" t="s">
+        <v>46</v>
+      </c>
+      <c r="K24" s="92">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="L24" s="92">
+        <v>17</v>
+      </c>
+      <c r="M24" s="97"/>
+      <c r="N24" s="91"/>
+      <c r="O24" s="102"/>
+      <c r="P24" s="92">
+        <v>2</v>
+      </c>
+      <c r="Q24" s="92" t="s">
+        <v>46</v>
+      </c>
+      <c r="R24" s="92">
+        <v>76.3</v>
+      </c>
+      <c r="S24" s="92">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A25" s="102"/>
+      <c r="B25" s="92">
+        <v>2</v>
+      </c>
+      <c r="C25" s="92" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="92">
+        <v>66.5</v>
+      </c>
+      <c r="E25" s="92">
+        <v>18</v>
+      </c>
+      <c r="F25" s="90"/>
+      <c r="G25" s="91"/>
+      <c r="H25" s="102"/>
+      <c r="I25" s="92">
+        <v>2</v>
+      </c>
+      <c r="J25" s="92" t="s">
+        <v>48</v>
+      </c>
+      <c r="K25" s="92">
+        <v>108.2</v>
+      </c>
+      <c r="L25" s="92">
+        <v>16</v>
+      </c>
+      <c r="M25" s="97"/>
+      <c r="N25" s="91"/>
+      <c r="O25" s="102"/>
+      <c r="P25" s="92">
+        <v>2</v>
+      </c>
+      <c r="Q25" s="92" t="s">
+        <v>48</v>
+      </c>
+      <c r="R25" s="92">
+        <v>55</v>
+      </c>
+      <c r="S25" s="92">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A26" s="102"/>
+      <c r="B26" s="92">
+        <v>2</v>
+      </c>
+      <c r="C26" s="92" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="92">
+        <v>83.1</v>
+      </c>
+      <c r="E26" s="92">
+        <v>16</v>
+      </c>
+      <c r="F26" s="90"/>
+      <c r="G26" s="91"/>
+      <c r="H26" s="102"/>
+      <c r="I26" s="92">
+        <v>2</v>
+      </c>
+      <c r="J26" s="92" t="s">
+        <v>49</v>
+      </c>
+      <c r="K26" s="92">
+        <v>51</v>
+      </c>
+      <c r="L26" s="92">
+        <v>14</v>
+      </c>
+      <c r="M26" s="97"/>
+      <c r="N26" s="91"/>
+      <c r="O26" s="102"/>
+      <c r="P26" s="92">
+        <v>2</v>
+      </c>
+      <c r="Q26" s="92" t="s">
+        <v>49</v>
+      </c>
+      <c r="R26" s="92">
+        <v>73.2</v>
+      </c>
+      <c r="S26" s="92">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A27" s="102"/>
+      <c r="B27" s="92">
+        <v>2</v>
+      </c>
+      <c r="C27" s="92" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="92">
+        <v>56</v>
+      </c>
+      <c r="E27" s="92">
+        <v>17</v>
+      </c>
+      <c r="F27" s="90"/>
+      <c r="G27" s="91"/>
+      <c r="H27" s="102"/>
+      <c r="I27" s="92">
+        <v>2</v>
+      </c>
+      <c r="J27" s="92" t="s">
+        <v>47</v>
+      </c>
+      <c r="K27" s="92">
+        <v>89.5</v>
+      </c>
+      <c r="L27" s="92">
+        <v>16</v>
+      </c>
+      <c r="M27" s="97"/>
+      <c r="N27" s="91"/>
+      <c r="O27" s="102"/>
+      <c r="P27" s="92">
+        <v>2</v>
+      </c>
+      <c r="Q27" s="92" t="s">
+        <v>47</v>
+      </c>
+      <c r="R27" s="92">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="S27" s="92">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A28" s="102"/>
+      <c r="B28" s="92">
+        <v>3</v>
+      </c>
+      <c r="C28" s="92" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="92">
+        <v>80.3</v>
+      </c>
+      <c r="E28" s="92">
+        <v>21</v>
+      </c>
+      <c r="F28" s="90"/>
+      <c r="G28" s="91"/>
+      <c r="H28" s="102"/>
+      <c r="I28" s="92">
+        <v>3</v>
+      </c>
+      <c r="J28" s="92" t="s">
+        <v>46</v>
+      </c>
+      <c r="K28" s="92">
+        <v>89.5</v>
+      </c>
+      <c r="L28" s="92">
+        <v>10</v>
+      </c>
+      <c r="M28" s="97"/>
+      <c r="N28" s="91"/>
+      <c r="O28" s="102"/>
+      <c r="P28" s="92">
+        <v>3</v>
+      </c>
+      <c r="Q28" s="92" t="s">
+        <v>46</v>
+      </c>
+      <c r="R28" s="92">
+        <v>90.2</v>
+      </c>
+      <c r="S28" s="92">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A29" s="102"/>
+      <c r="B29" s="92">
+        <v>3</v>
+      </c>
+      <c r="C29" s="92" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="92">
+        <v>64.3</v>
+      </c>
+      <c r="E29" s="92">
+        <v>10</v>
+      </c>
+      <c r="F29" s="90"/>
+      <c r="G29" s="91"/>
+      <c r="H29" s="102"/>
+      <c r="I29" s="92">
+        <v>3</v>
+      </c>
+      <c r="J29" s="92" t="s">
+        <v>48</v>
+      </c>
+      <c r="K29" s="92">
+        <v>99.3</v>
+      </c>
+      <c r="L29" s="92">
+        <v>10</v>
+      </c>
+      <c r="M29" s="97"/>
+      <c r="N29" s="91"/>
+      <c r="O29" s="102"/>
+      <c r="P29" s="92">
+        <v>3</v>
+      </c>
+      <c r="Q29" s="92" t="s">
+        <v>48</v>
+      </c>
+      <c r="R29" s="92">
+        <v>111</v>
+      </c>
+      <c r="S29" s="92">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A30" s="102"/>
+      <c r="B30" s="92">
+        <v>3</v>
+      </c>
+      <c r="C30" s="92" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="92">
+        <v>53.2</v>
+      </c>
+      <c r="E30" s="92">
+        <v>16</v>
+      </c>
+      <c r="F30" s="90"/>
+      <c r="G30" s="91"/>
+      <c r="H30" s="102"/>
+      <c r="I30" s="92">
+        <v>3</v>
+      </c>
+      <c r="J30" s="92" t="s">
+        <v>49</v>
+      </c>
+      <c r="K30" s="92">
+        <v>57.2</v>
+      </c>
+      <c r="L30" s="92">
+        <v>12</v>
+      </c>
+      <c r="M30" s="97"/>
+      <c r="N30" s="91"/>
+      <c r="O30" s="102"/>
+      <c r="P30" s="92">
+        <v>3</v>
+      </c>
+      <c r="Q30" s="92" t="s">
+        <v>49</v>
+      </c>
+      <c r="R30" s="92">
+        <v>86.5</v>
+      </c>
+      <c r="S30" s="92">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A31" s="102"/>
+      <c r="B31" s="92">
+        <v>3</v>
+      </c>
+      <c r="C31" s="92" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" s="92">
+        <v>45.3</v>
+      </c>
+      <c r="E31" s="92">
+        <v>14</v>
+      </c>
+      <c r="F31" s="90"/>
+      <c r="G31" s="91"/>
+      <c r="H31" s="102"/>
+      <c r="I31" s="92">
+        <v>3</v>
+      </c>
+      <c r="J31" s="92" t="s">
+        <v>47</v>
+      </c>
+      <c r="K31" s="92">
+        <v>67.8</v>
+      </c>
+      <c r="L31" s="92">
+        <v>12</v>
+      </c>
+      <c r="M31" s="97"/>
+      <c r="N31" s="91"/>
+      <c r="O31" s="102"/>
+      <c r="P31" s="92">
+        <v>3</v>
+      </c>
+      <c r="Q31" s="92" t="s">
+        <v>47</v>
+      </c>
+      <c r="R31" s="92">
+        <v>86.2</v>
+      </c>
+      <c r="S31" s="92">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A32" s="102"/>
+      <c r="B32" s="92">
+        <v>4</v>
+      </c>
+      <c r="C32" s="92" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="92">
+        <v>54.4</v>
+      </c>
+      <c r="E32" s="92">
+        <v>16</v>
+      </c>
+      <c r="F32" s="90"/>
+      <c r="G32" s="91"/>
+      <c r="H32" s="102"/>
+      <c r="I32" s="92"/>
+      <c r="J32" s="92"/>
+      <c r="K32" s="92"/>
+      <c r="L32" s="92"/>
+      <c r="M32" s="97"/>
+      <c r="N32" s="91"/>
+      <c r="O32" s="102"/>
+      <c r="P32" s="92">
+        <v>4</v>
+      </c>
+      <c r="Q32" s="92" t="s">
+        <v>46</v>
+      </c>
+      <c r="R32" s="92">
+        <v>92.1</v>
+      </c>
+      <c r="S32" s="92">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A33" s="102"/>
+      <c r="B33" s="92">
+        <v>4</v>
+      </c>
+      <c r="C33" s="92" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="92">
+        <v>81.8</v>
+      </c>
+      <c r="E33" s="92">
+        <v>12</v>
+      </c>
+      <c r="F33" s="90"/>
+      <c r="G33" s="91"/>
+      <c r="H33" s="102"/>
+      <c r="I33" s="92"/>
+      <c r="J33" s="92"/>
+      <c r="K33" s="92"/>
+      <c r="L33" s="92"/>
+      <c r="M33" s="97"/>
+      <c r="N33" s="91"/>
+      <c r="O33" s="102"/>
+      <c r="P33" s="92"/>
+      <c r="Q33" s="92"/>
+      <c r="R33" s="92"/>
+      <c r="S33" s="92"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A34" s="103"/>
+      <c r="B34" s="92" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="92">
+        <v>14</v>
+      </c>
+      <c r="D34" s="92"/>
+      <c r="E34" s="92"/>
+      <c r="F34" s="90"/>
+      <c r="G34" s="91"/>
+      <c r="H34" s="103"/>
+      <c r="I34" s="92" t="s">
+        <v>18</v>
+      </c>
+      <c r="J34" s="92">
+        <v>12</v>
+      </c>
+      <c r="K34" s="92"/>
+      <c r="L34" s="92"/>
+      <c r="M34" s="97"/>
+      <c r="N34" s="91"/>
+      <c r="O34" s="103"/>
+      <c r="P34" s="92" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q34" s="92">
+        <v>13</v>
+      </c>
+      <c r="R34" s="92"/>
+      <c r="S34" s="92"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A35" s="90"/>
+      <c r="B35" s="90"/>
+      <c r="C35" s="90"/>
+      <c r="D35" s="90"/>
+      <c r="E35" s="90"/>
+      <c r="F35" s="90"/>
+      <c r="G35" s="97"/>
+      <c r="H35" s="97"/>
+      <c r="I35" s="97"/>
+      <c r="J35" s="97"/>
+      <c r="K35" s="97"/>
+      <c r="L35" s="97"/>
+      <c r="M35" s="97"/>
+      <c r="N35" s="97"/>
+      <c r="O35" s="97"/>
+      <c r="P35" s="97"/>
+      <c r="Q35" s="97"/>
+      <c r="R35" s="97"/>
+      <c r="S35" s="97"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A36" s="94">
+        <v>7</v>
+      </c>
+      <c r="B36" s="92">
+        <v>1</v>
+      </c>
+      <c r="C36" s="92" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36" s="92">
+        <v>53</v>
+      </c>
+      <c r="E36" s="92">
+        <v>23</v>
+      </c>
+      <c r="F36" s="97"/>
+      <c r="G36" s="91"/>
+      <c r="H36" s="94">
+        <v>8</v>
+      </c>
+      <c r="I36" s="92">
+        <v>1</v>
+      </c>
+      <c r="J36" s="92" t="s">
+        <v>46</v>
+      </c>
+      <c r="K36" s="92">
+        <v>58.7</v>
+      </c>
+      <c r="L36" s="92">
+        <v>11</v>
+      </c>
+      <c r="M36" s="97"/>
+      <c r="N36" s="91"/>
+      <c r="O36" s="94">
+        <v>9</v>
+      </c>
+      <c r="P36" s="92">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="92" t="s">
+        <v>46</v>
+      </c>
+      <c r="R36" s="92">
+        <v>88.5</v>
+      </c>
+      <c r="S36" s="105">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A37" s="102"/>
+      <c r="B37" s="92">
+        <v>1</v>
+      </c>
+      <c r="C37" s="92" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" s="92">
+        <v>84.8</v>
+      </c>
+      <c r="E37" s="92">
+        <v>20</v>
+      </c>
+      <c r="F37" s="97"/>
+      <c r="G37" s="91"/>
+      <c r="H37" s="102"/>
+      <c r="I37" s="92">
+        <v>1</v>
+      </c>
+      <c r="J37" s="92" t="s">
+        <v>48</v>
+      </c>
+      <c r="K37" s="92">
+        <v>70</v>
+      </c>
+      <c r="L37" s="92">
+        <v>12</v>
+      </c>
+      <c r="M37" s="97"/>
+      <c r="N37" s="91"/>
+      <c r="O37" s="102"/>
+      <c r="P37" s="92">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="92" t="s">
+        <v>48</v>
+      </c>
+      <c r="R37" s="92">
+        <v>86.7</v>
+      </c>
+      <c r="S37" s="92">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A38" s="102"/>
+      <c r="B38" s="92">
+        <v>1</v>
+      </c>
+      <c r="C38" s="92" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" s="92">
+        <v>82.5</v>
+      </c>
+      <c r="E38" s="92">
+        <v>11</v>
+      </c>
+      <c r="F38" s="97"/>
+      <c r="G38" s="91"/>
+      <c r="H38" s="102"/>
+      <c r="I38" s="92">
+        <v>1</v>
+      </c>
+      <c r="J38" s="92" t="s">
+        <v>49</v>
+      </c>
+      <c r="K38" s="92">
+        <v>88.4</v>
+      </c>
+      <c r="L38" s="92">
+        <v>16</v>
+      </c>
+      <c r="M38" s="97"/>
+      <c r="N38" s="91"/>
+      <c r="O38" s="102"/>
+      <c r="P38" s="92">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="92" t="s">
+        <v>49</v>
+      </c>
+      <c r="R38" s="92">
+        <v>80.7</v>
+      </c>
+      <c r="S38" s="92">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A39" s="102"/>
+      <c r="B39" s="92">
+        <v>1</v>
+      </c>
+      <c r="C39" s="92" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39" s="105">
+        <v>84.6</v>
+      </c>
+      <c r="E39" s="92">
+        <v>11</v>
+      </c>
+      <c r="F39" s="97"/>
+      <c r="G39" s="91"/>
+      <c r="H39" s="102"/>
+      <c r="I39" s="92">
+        <v>1</v>
+      </c>
+      <c r="J39" s="92" t="s">
+        <v>47</v>
+      </c>
+      <c r="K39" s="92">
+        <v>75.3</v>
+      </c>
+      <c r="L39" s="92">
+        <v>18</v>
+      </c>
+      <c r="M39" s="97"/>
+      <c r="N39" s="91"/>
+      <c r="O39" s="102"/>
+      <c r="P39" s="92">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="92" t="s">
+        <v>47</v>
+      </c>
+      <c r="R39" s="92">
+        <v>94</v>
+      </c>
+      <c r="S39" s="92">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A40" s="102"/>
+      <c r="B40" s="92">
+        <v>2</v>
+      </c>
+      <c r="C40" s="92" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" s="92">
+        <v>87</v>
+      </c>
+      <c r="E40" s="92">
+        <v>13</v>
+      </c>
+      <c r="F40" s="97"/>
+      <c r="G40" s="91"/>
+      <c r="H40" s="102"/>
+      <c r="I40" s="92">
+        <v>2</v>
+      </c>
+      <c r="J40" s="92" t="s">
+        <v>46</v>
+      </c>
+      <c r="K40" s="92">
+        <v>73.8</v>
+      </c>
+      <c r="L40" s="92">
+        <v>14</v>
+      </c>
+      <c r="M40" s="97"/>
+      <c r="N40" s="91"/>
+      <c r="O40" s="102"/>
+      <c r="P40" s="92">
+        <v>2</v>
+      </c>
+      <c r="Q40" s="92" t="s">
+        <v>46</v>
+      </c>
+      <c r="R40" s="92">
+        <v>89.3</v>
+      </c>
+      <c r="S40" s="92">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A41" s="102"/>
+      <c r="B41" s="92">
+        <v>2</v>
+      </c>
+      <c r="C41" s="92" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41" s="92">
+        <v>97.8</v>
+      </c>
+      <c r="E41" s="92">
+        <v>13</v>
+      </c>
+      <c r="F41" s="97"/>
+      <c r="G41" s="91"/>
+      <c r="H41" s="102"/>
+      <c r="I41" s="92">
+        <v>2</v>
+      </c>
+      <c r="J41" s="92" t="s">
+        <v>48</v>
+      </c>
+      <c r="K41" s="92">
+        <v>72</v>
+      </c>
+      <c r="L41" s="92">
+        <v>18</v>
+      </c>
+      <c r="M41" s="97"/>
+      <c r="N41" s="91"/>
+      <c r="O41" s="102"/>
+      <c r="P41" s="92">
+        <v>2</v>
+      </c>
+      <c r="Q41" s="92" t="s">
+        <v>48</v>
+      </c>
+      <c r="R41" s="92">
+        <v>94</v>
+      </c>
+      <c r="S41" s="92">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A42" s="102"/>
+      <c r="B42" s="92">
+        <v>2</v>
+      </c>
+      <c r="C42" s="92" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42" s="92">
+        <v>72</v>
+      </c>
+      <c r="E42" s="92">
+        <v>20</v>
+      </c>
+      <c r="F42" s="97"/>
+      <c r="G42" s="91"/>
+      <c r="H42" s="102"/>
+      <c r="I42" s="92">
+        <v>2</v>
+      </c>
+      <c r="J42" s="92" t="s">
+        <v>49</v>
+      </c>
+      <c r="K42" s="92">
+        <v>85.7</v>
+      </c>
+      <c r="L42" s="92">
+        <v>14</v>
+      </c>
+      <c r="M42" s="97"/>
+      <c r="N42" s="91"/>
+      <c r="O42" s="102"/>
+      <c r="P42" s="92">
+        <v>2</v>
+      </c>
+      <c r="Q42" s="92" t="s">
+        <v>49</v>
+      </c>
+      <c r="R42" s="92">
+        <v>97.5</v>
+      </c>
+      <c r="S42" s="92">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A43" s="102"/>
+      <c r="B43" s="92">
+        <v>2</v>
+      </c>
+      <c r="C43" s="92" t="s">
+        <v>47</v>
+      </c>
+      <c r="D43" s="92">
+        <v>56</v>
+      </c>
+      <c r="E43" s="92">
+        <v>14</v>
+      </c>
+      <c r="F43" s="97"/>
+      <c r="G43" s="91"/>
+      <c r="H43" s="102"/>
+      <c r="I43" s="92">
+        <v>2</v>
+      </c>
+      <c r="J43" s="92" t="s">
+        <v>47</v>
+      </c>
+      <c r="K43" s="92">
+        <v>91.8</v>
+      </c>
+      <c r="L43" s="92">
+        <v>17</v>
+      </c>
+      <c r="M43" s="97"/>
+      <c r="N43" s="91"/>
+      <c r="O43" s="102"/>
+      <c r="P43" s="92">
+        <v>2</v>
+      </c>
+      <c r="Q43" s="92" t="s">
+        <v>47</v>
+      </c>
+      <c r="R43" s="92">
+        <v>86.5</v>
+      </c>
+      <c r="S43" s="92">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A44" s="102"/>
+      <c r="B44" s="92">
+        <v>3</v>
+      </c>
+      <c r="C44" s="92" t="s">
+        <v>46</v>
+      </c>
+      <c r="D44" s="92">
+        <v>53.2</v>
+      </c>
+      <c r="E44" s="92">
+        <v>10</v>
+      </c>
+      <c r="F44" s="97"/>
+      <c r="G44" s="91"/>
+      <c r="H44" s="102"/>
+      <c r="I44" s="92">
+        <v>3</v>
+      </c>
+      <c r="J44" s="92" t="s">
+        <v>49</v>
+      </c>
+      <c r="K44" s="92">
+        <v>75</v>
+      </c>
+      <c r="L44" s="92">
+        <v>12</v>
+      </c>
+      <c r="M44" s="97"/>
+      <c r="N44" s="91"/>
+      <c r="O44" s="102"/>
+      <c r="P44" s="92">
+        <v>3</v>
+      </c>
+      <c r="Q44" s="92" t="s">
+        <v>46</v>
+      </c>
+      <c r="R44" s="105">
+        <v>58.1</v>
+      </c>
+      <c r="S44" s="92">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A45" s="102"/>
+      <c r="B45" s="92">
+        <v>3</v>
+      </c>
+      <c r="C45" s="92" t="s">
+        <v>48</v>
+      </c>
+      <c r="D45" s="92">
+        <v>97.5</v>
+      </c>
+      <c r="E45" s="92">
+        <v>10</v>
+      </c>
+      <c r="F45" s="97"/>
+      <c r="G45" s="91"/>
+      <c r="H45" s="102"/>
+      <c r="I45" s="92"/>
+      <c r="J45" s="92"/>
+      <c r="K45" s="92"/>
+      <c r="L45" s="92"/>
+      <c r="M45" s="97"/>
+      <c r="N45" s="91"/>
+      <c r="O45" s="102"/>
+      <c r="P45" s="92">
+        <v>3</v>
+      </c>
+      <c r="Q45" s="92" t="s">
+        <v>48</v>
+      </c>
+      <c r="R45" s="92">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="S45" s="92">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A46" s="102"/>
+      <c r="B46" s="92">
+        <v>3</v>
+      </c>
+      <c r="C46" s="92" t="s">
+        <v>49</v>
+      </c>
+      <c r="D46" s="92">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="E46" s="92">
+        <v>15</v>
+      </c>
+      <c r="F46" s="97"/>
+      <c r="G46" s="91"/>
+      <c r="H46" s="102"/>
+      <c r="I46" s="92"/>
+      <c r="J46" s="92"/>
+      <c r="K46" s="92"/>
+      <c r="L46" s="92"/>
+      <c r="M46" s="97"/>
+      <c r="N46" s="91"/>
+      <c r="O46" s="102"/>
+      <c r="P46" s="92">
+        <v>3</v>
+      </c>
+      <c r="Q46" s="92" t="s">
+        <v>49</v>
+      </c>
+      <c r="R46" s="92">
+        <v>60</v>
+      </c>
+      <c r="S46" s="92">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A47" s="102"/>
+      <c r="B47" s="92"/>
+      <c r="C47" s="92"/>
+      <c r="D47" s="92"/>
+      <c r="E47" s="92"/>
+      <c r="F47" s="97"/>
+      <c r="G47" s="91"/>
+      <c r="H47" s="102"/>
+      <c r="I47" s="92"/>
+      <c r="J47" s="92"/>
+      <c r="K47" s="92"/>
+      <c r="L47" s="92"/>
+      <c r="M47" s="97"/>
+      <c r="N47" s="91"/>
+      <c r="O47" s="102"/>
+      <c r="P47" s="92">
+        <v>3</v>
+      </c>
+      <c r="Q47" s="92" t="s">
+        <v>47</v>
+      </c>
+      <c r="R47" s="92">
+        <v>61.1</v>
+      </c>
+      <c r="S47" s="92">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A48" s="103"/>
+      <c r="B48" s="92" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48" s="92">
+        <v>11</v>
+      </c>
+      <c r="D48" s="92"/>
+      <c r="E48" s="92"/>
+      <c r="F48" s="97"/>
+      <c r="G48" s="91"/>
+      <c r="H48" s="103"/>
+      <c r="I48" s="92" t="s">
+        <v>18</v>
+      </c>
+      <c r="J48" s="92">
+        <v>9</v>
+      </c>
+      <c r="K48" s="92"/>
+      <c r="L48" s="92"/>
+      <c r="M48" s="97"/>
+      <c r="N48" s="91"/>
+      <c r="O48" s="103"/>
+      <c r="P48" s="92" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q48" s="92">
+        <v>12</v>
+      </c>
+      <c r="R48" s="92"/>
+      <c r="S48" s="92"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="H20:H34"/>
+    <mergeCell ref="H36:H48"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="H6:H18"/>
+    <mergeCell ref="O6:O18"/>
+    <mergeCell ref="A7:A18"/>
+    <mergeCell ref="A20:A34"/>
+    <mergeCell ref="O20:O34"/>
+    <mergeCell ref="A36:A48"/>
+    <mergeCell ref="O36:O48"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:S47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="74"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="80"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -39269,11 +41933,11 @@
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="75"/>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="77"/>
+      <c r="A2" s="81"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -39337,7 +42001,7 @@
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="78">
+      <c r="H5" s="84">
         <v>2</v>
       </c>
       <c r="I5" s="8">
@@ -39353,7 +42017,7 @@
         <v>21</v>
       </c>
       <c r="N5" s="6"/>
-      <c r="O5" s="78">
+      <c r="O5" s="84">
         <v>3</v>
       </c>
       <c r="P5" s="8">
@@ -39370,7 +42034,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="78">
+      <c r="A6" s="84">
         <v>1</v>
       </c>
       <c r="B6" s="8">
@@ -39387,7 +42051,7 @@
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="70"/>
+      <c r="H6" s="76"/>
       <c r="I6" s="8">
         <v>1</v>
       </c>
@@ -39401,7 +42065,7 @@
         <v>16</v>
       </c>
       <c r="N6" s="6"/>
-      <c r="O6" s="70"/>
+      <c r="O6" s="76"/>
       <c r="P6" s="8">
         <v>1</v>
       </c>
@@ -39416,7 +42080,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="70"/>
+      <c r="A7" s="76"/>
       <c r="B7" s="8">
         <v>1</v>
       </c>
@@ -39430,7 +42094,7 @@
         <v>22</v>
       </c>
       <c r="G7" s="6"/>
-      <c r="H7" s="70"/>
+      <c r="H7" s="76"/>
       <c r="I7" s="8">
         <v>1</v>
       </c>
@@ -39444,7 +42108,7 @@
         <v>11</v>
       </c>
       <c r="N7" s="6"/>
-      <c r="O7" s="70"/>
+      <c r="O7" s="76"/>
       <c r="P7" s="8">
         <v>1</v>
       </c>
@@ -39459,7 +42123,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="70"/>
+      <c r="A8" s="76"/>
       <c r="B8" s="8">
         <v>1</v>
       </c>
@@ -39474,7 +42138,7 @@
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="70"/>
+      <c r="H8" s="76"/>
       <c r="I8" s="8">
         <v>1</v>
       </c>
@@ -39488,7 +42152,7 @@
         <v>16</v>
       </c>
       <c r="N8" s="6"/>
-      <c r="O8" s="70"/>
+      <c r="O8" s="76"/>
       <c r="P8" s="8">
         <v>1</v>
       </c>
@@ -39503,7 +42167,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="70"/>
+      <c r="A9" s="76"/>
       <c r="B9" s="8">
         <v>1</v>
       </c>
@@ -39518,7 +42182,7 @@
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="6"/>
-      <c r="H9" s="70"/>
+      <c r="H9" s="76"/>
       <c r="I9" s="8">
         <v>2</v>
       </c>
@@ -39532,7 +42196,7 @@
         <v>20</v>
       </c>
       <c r="N9" s="6"/>
-      <c r="O9" s="70"/>
+      <c r="O9" s="76"/>
       <c r="P9" s="8">
         <v>2</v>
       </c>
@@ -39547,7 +42211,7 @@
       </c>
     </row>
     <row r="10" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="70"/>
+      <c r="A10" s="76"/>
       <c r="B10" s="8">
         <v>1</v>
       </c>
@@ -39562,7 +42226,7 @@
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="6"/>
-      <c r="H10" s="70"/>
+      <c r="H10" s="76"/>
       <c r="I10" s="8">
         <v>2</v>
       </c>
@@ -39576,7 +42240,7 @@
         <v>13</v>
       </c>
       <c r="N10" s="6"/>
-      <c r="O10" s="70"/>
+      <c r="O10" s="76"/>
       <c r="P10" s="8">
         <v>2</v>
       </c>
@@ -39591,7 +42255,7 @@
       </c>
     </row>
     <row r="11" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="70"/>
+      <c r="A11" s="76"/>
       <c r="B11" s="8">
         <v>2</v>
       </c>
@@ -39606,7 +42270,7 @@
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="6"/>
-      <c r="H11" s="70"/>
+      <c r="H11" s="76"/>
       <c r="I11" s="8">
         <v>2</v>
       </c>
@@ -39620,7 +42284,7 @@
         <v>10</v>
       </c>
       <c r="N11" s="6"/>
-      <c r="O11" s="70"/>
+      <c r="O11" s="76"/>
       <c r="P11" s="8">
         <v>2</v>
       </c>
@@ -39635,7 +42299,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="70"/>
+      <c r="A12" s="76"/>
       <c r="B12" s="8">
         <v>2</v>
       </c>
@@ -39650,7 +42314,7 @@
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="6"/>
-      <c r="H12" s="70"/>
+      <c r="H12" s="76"/>
       <c r="I12" s="8">
         <v>2</v>
       </c>
@@ -39664,7 +42328,7 @@
         <v>19</v>
       </c>
       <c r="N12" s="6"/>
-      <c r="O12" s="70"/>
+      <c r="O12" s="76"/>
       <c r="P12" s="8">
         <v>2</v>
       </c>
@@ -39679,7 +42343,7 @@
       </c>
     </row>
     <row r="13" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="70"/>
+      <c r="A13" s="76"/>
       <c r="B13" s="8">
         <v>2</v>
       </c>
@@ -39694,7 +42358,7 @@
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="6"/>
-      <c r="H13" s="70"/>
+      <c r="H13" s="76"/>
       <c r="I13" s="8">
         <v>3</v>
       </c>
@@ -39708,7 +42372,7 @@
         <v>16</v>
       </c>
       <c r="N13" s="6"/>
-      <c r="O13" s="70"/>
+      <c r="O13" s="76"/>
       <c r="P13" s="8">
         <v>3</v>
       </c>
@@ -39723,22 +42387,22 @@
       </c>
     </row>
     <row r="14" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="70"/>
+      <c r="A14" s="76"/>
       <c r="B14" s="8">
         <v>2</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="8">
-        <v>65.400000000000006</v>
+      <c r="D14" s="87">
+        <v>75.8</v>
       </c>
       <c r="E14" s="8">
         <v>17</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="6"/>
-      <c r="H14" s="70"/>
+      <c r="H14" s="76"/>
       <c r="I14" s="8">
         <v>3</v>
       </c>
@@ -39752,7 +42416,7 @@
         <v>12</v>
       </c>
       <c r="N14" s="6"/>
-      <c r="O14" s="70"/>
+      <c r="O14" s="76"/>
       <c r="P14" s="8">
         <v>3</v>
       </c>
@@ -39767,7 +42431,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="70"/>
+      <c r="A15" s="76"/>
       <c r="B15" s="8">
         <v>3</v>
       </c>
@@ -39782,7 +42446,7 @@
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="6"/>
-      <c r="H15" s="70"/>
+      <c r="H15" s="76"/>
       <c r="I15" s="8">
         <v>3</v>
       </c>
@@ -39796,7 +42460,7 @@
         <v>12</v>
       </c>
       <c r="N15" s="6"/>
-      <c r="O15" s="70"/>
+      <c r="O15" s="76"/>
       <c r="P15" s="8">
         <v>3</v>
       </c>
@@ -39811,7 +42475,7 @@
       </c>
     </row>
     <row r="16" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="70"/>
+      <c r="A16" s="76"/>
       <c r="B16" s="8">
         <v>3</v>
       </c>
@@ -39826,7 +42490,7 @@
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="6"/>
-      <c r="H16" s="70"/>
+      <c r="H16" s="76"/>
       <c r="I16" s="8">
         <v>3</v>
       </c>
@@ -39840,7 +42504,7 @@
         <v>12</v>
       </c>
       <c r="N16" s="6"/>
-      <c r="O16" s="70"/>
+      <c r="O16" s="76"/>
       <c r="P16" s="8">
         <v>3</v>
       </c>
@@ -39855,7 +42519,7 @@
       </c>
     </row>
     <row r="17" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="71"/>
+      <c r="A17" s="77"/>
       <c r="B17" s="8" t="s">
         <v>18</v>
       </c>
@@ -39867,7 +42531,7 @@
       <c r="E17" s="8"/>
       <c r="F17" s="1"/>
       <c r="G17" s="6"/>
-      <c r="H17" s="71"/>
+      <c r="H17" s="77"/>
       <c r="I17" s="8" t="s">
         <v>18</v>
       </c>
@@ -39878,7 +42542,7 @@
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
       <c r="N17" s="6"/>
-      <c r="O17" s="71"/>
+      <c r="O17" s="77"/>
       <c r="P17" s="32" t="s">
         <v>18</v>
       </c>
@@ -39896,7 +42560,7 @@
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="78">
+      <c r="A19" s="84">
         <v>4</v>
       </c>
       <c r="B19" s="8">
@@ -39913,7 +42577,7 @@
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="34"/>
-      <c r="H19" s="69">
+      <c r="H19" s="75">
         <v>5</v>
       </c>
       <c r="I19" s="8">
@@ -39929,7 +42593,7 @@
         <v>10</v>
       </c>
       <c r="N19" s="34"/>
-      <c r="O19" s="69">
+      <c r="O19" s="75">
         <v>6</v>
       </c>
       <c r="P19" s="8">
@@ -39946,7 +42610,7 @@
       </c>
     </row>
     <row r="20" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="70"/>
+      <c r="A20" s="76"/>
       <c r="B20" s="8">
         <v>1</v>
       </c>
@@ -39961,7 +42625,7 @@
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="34"/>
-      <c r="H20" s="70"/>
+      <c r="H20" s="76"/>
       <c r="I20" s="8">
         <v>1</v>
       </c>
@@ -39975,7 +42639,7 @@
         <v>12</v>
       </c>
       <c r="N20" s="34"/>
-      <c r="O20" s="70"/>
+      <c r="O20" s="76"/>
       <c r="P20" s="8">
         <v>1</v>
       </c>
@@ -39990,22 +42654,22 @@
       </c>
     </row>
     <row r="21" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="70"/>
+      <c r="A21" s="76"/>
       <c r="B21" s="8">
         <v>1</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="8">
-        <v>88.1</v>
+      <c r="D21" s="87">
+        <v>74.599999999999994</v>
       </c>
       <c r="E21" s="32">
         <v>12</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="34"/>
-      <c r="H21" s="70"/>
+      <c r="H21" s="76"/>
       <c r="I21" s="8">
         <v>1</v>
       </c>
@@ -40019,7 +42683,7 @@
         <v>10</v>
       </c>
       <c r="N21" s="34"/>
-      <c r="O21" s="70"/>
+      <c r="O21" s="76"/>
       <c r="P21" s="8">
         <v>1</v>
       </c>
@@ -40034,7 +42698,7 @@
       </c>
     </row>
     <row r="22" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="70"/>
+      <c r="A22" s="76"/>
       <c r="B22" s="8">
         <v>1</v>
       </c>
@@ -40049,21 +42713,21 @@
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="34"/>
-      <c r="H22" s="70"/>
+      <c r="H22" s="76"/>
       <c r="I22" s="8">
         <v>1</v>
       </c>
       <c r="J22" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="K22" s="32">
-        <v>87.5</v>
+      <c r="K22" s="88">
+        <v>101.6</v>
       </c>
       <c r="L22" s="32">
         <v>10</v>
       </c>
       <c r="N22" s="34"/>
-      <c r="O22" s="70"/>
+      <c r="O22" s="76"/>
       <c r="P22" s="8">
         <v>1</v>
       </c>
@@ -40078,7 +42742,7 @@
       </c>
     </row>
     <row r="23" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="70"/>
+      <c r="A23" s="76"/>
       <c r="B23" s="8">
         <v>2</v>
       </c>
@@ -40093,7 +42757,7 @@
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="34"/>
-      <c r="H23" s="70"/>
+      <c r="H23" s="76"/>
       <c r="I23" s="8">
         <v>2</v>
       </c>
@@ -40107,7 +42771,7 @@
         <v>17</v>
       </c>
       <c r="N23" s="34"/>
-      <c r="O23" s="70"/>
+      <c r="O23" s="76"/>
       <c r="P23" s="8">
         <v>2</v>
       </c>
@@ -40122,7 +42786,7 @@
       </c>
     </row>
     <row r="24" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="70"/>
+      <c r="A24" s="76"/>
       <c r="B24" s="8">
         <v>2</v>
       </c>
@@ -40137,7 +42801,7 @@
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="34"/>
-      <c r="H24" s="70"/>
+      <c r="H24" s="76"/>
       <c r="I24" s="8">
         <v>2</v>
       </c>
@@ -40151,7 +42815,7 @@
         <v>16</v>
       </c>
       <c r="N24" s="34"/>
-      <c r="O24" s="70"/>
+      <c r="O24" s="76"/>
       <c r="P24" s="8">
         <v>2</v>
       </c>
@@ -40166,7 +42830,7 @@
       </c>
     </row>
     <row r="25" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="70"/>
+      <c r="A25" s="76"/>
       <c r="B25" s="8">
         <v>2</v>
       </c>
@@ -40181,7 +42845,7 @@
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="34"/>
-      <c r="H25" s="70"/>
+      <c r="H25" s="76"/>
       <c r="I25" s="8">
         <v>2</v>
       </c>
@@ -40195,7 +42859,7 @@
         <v>14</v>
       </c>
       <c r="N25" s="34"/>
-      <c r="O25" s="70"/>
+      <c r="O25" s="76"/>
       <c r="P25" s="8">
         <v>2</v>
       </c>
@@ -40210,7 +42874,7 @@
       </c>
     </row>
     <row r="26" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="70"/>
+      <c r="A26" s="76"/>
       <c r="B26" s="8">
         <v>2</v>
       </c>
@@ -40225,7 +42889,7 @@
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="34"/>
-      <c r="H26" s="70"/>
+      <c r="H26" s="76"/>
       <c r="I26" s="8">
         <v>2</v>
       </c>
@@ -40239,7 +42903,7 @@
         <v>16</v>
       </c>
       <c r="N26" s="34"/>
-      <c r="O26" s="70"/>
+      <c r="O26" s="76"/>
       <c r="P26" s="8">
         <v>2</v>
       </c>
@@ -40254,7 +42918,7 @@
       </c>
     </row>
     <row r="27" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="70"/>
+      <c r="A27" s="76"/>
       <c r="B27" s="8">
         <v>3</v>
       </c>
@@ -40269,7 +42933,7 @@
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="34"/>
-      <c r="H27" s="70"/>
+      <c r="H27" s="76"/>
       <c r="I27" s="8">
         <v>3</v>
       </c>
@@ -40283,7 +42947,7 @@
         <v>10</v>
       </c>
       <c r="N27" s="34"/>
-      <c r="O27" s="70"/>
+      <c r="O27" s="76"/>
       <c r="P27" s="8">
         <v>3</v>
       </c>
@@ -40298,7 +42962,7 @@
       </c>
     </row>
     <row r="28" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="70"/>
+      <c r="A28" s="76"/>
       <c r="B28" s="8">
         <v>3</v>
       </c>
@@ -40313,7 +42977,7 @@
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="34"/>
-      <c r="H28" s="70"/>
+      <c r="H28" s="76"/>
       <c r="I28" s="8">
         <v>3</v>
       </c>
@@ -40327,7 +42991,7 @@
         <v>10</v>
       </c>
       <c r="N28" s="34"/>
-      <c r="O28" s="70"/>
+      <c r="O28" s="76"/>
       <c r="P28" s="8">
         <v>3</v>
       </c>
@@ -40342,7 +43006,7 @@
       </c>
     </row>
     <row r="29" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="70"/>
+      <c r="A29" s="76"/>
       <c r="B29" s="8">
         <v>3</v>
       </c>
@@ -40357,7 +43021,7 @@
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="34"/>
-      <c r="H29" s="70"/>
+      <c r="H29" s="76"/>
       <c r="I29" s="8">
         <v>3</v>
       </c>
@@ -40371,7 +43035,7 @@
         <v>12</v>
       </c>
       <c r="N29" s="34"/>
-      <c r="O29" s="70"/>
+      <c r="O29" s="76"/>
       <c r="P29" s="8">
         <v>3</v>
       </c>
@@ -40386,7 +43050,7 @@
       </c>
     </row>
     <row r="30" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="70"/>
+      <c r="A30" s="76"/>
       <c r="B30" s="8">
         <v>3</v>
       </c>
@@ -40401,7 +43065,7 @@
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="34"/>
-      <c r="H30" s="70"/>
+      <c r="H30" s="76"/>
       <c r="I30" s="8">
         <v>3</v>
       </c>
@@ -40415,7 +43079,7 @@
         <v>12</v>
       </c>
       <c r="N30" s="34"/>
-      <c r="O30" s="70"/>
+      <c r="O30" s="76"/>
       <c r="P30" s="8">
         <v>3</v>
       </c>
@@ -40430,7 +43094,7 @@
       </c>
     </row>
     <row r="31" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="70"/>
+      <c r="A31" s="76"/>
       <c r="B31" s="8">
         <v>4</v>
       </c>
@@ -40445,13 +43109,13 @@
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="34"/>
-      <c r="H31" s="70"/>
+      <c r="H31" s="76"/>
       <c r="I31" s="32"/>
       <c r="J31" s="32"/>
       <c r="K31" s="32"/>
       <c r="L31" s="32"/>
       <c r="N31" s="34"/>
-      <c r="O31" s="70"/>
+      <c r="O31" s="76"/>
       <c r="P31" s="32">
         <v>4</v>
       </c>
@@ -40466,7 +43130,7 @@
       </c>
     </row>
     <row r="32" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="70"/>
+      <c r="A32" s="76"/>
       <c r="B32" s="8">
         <v>4</v>
       </c>
@@ -40481,20 +43145,20 @@
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="34"/>
-      <c r="H32" s="70"/>
+      <c r="H32" s="76"/>
       <c r="I32" s="32"/>
       <c r="J32" s="32"/>
       <c r="K32" s="32"/>
       <c r="L32" s="32"/>
       <c r="N32" s="34"/>
-      <c r="O32" s="70"/>
+      <c r="O32" s="76"/>
       <c r="P32" s="32"/>
       <c r="Q32" s="32"/>
       <c r="R32" s="32"/>
       <c r="S32" s="32"/>
     </row>
     <row r="33" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="71"/>
+      <c r="A33" s="77"/>
       <c r="B33" s="32" t="s">
         <v>18</v>
       </c>
@@ -40506,7 +43170,7 @@
       <c r="E33" s="32"/>
       <c r="F33" s="1"/>
       <c r="G33" s="34"/>
-      <c r="H33" s="71"/>
+      <c r="H33" s="77"/>
       <c r="I33" s="32" t="s">
         <v>18</v>
       </c>
@@ -40517,7 +43181,7 @@
       <c r="K33" s="32"/>
       <c r="L33" s="32"/>
       <c r="N33" s="34"/>
-      <c r="O33" s="71"/>
+      <c r="O33" s="77"/>
       <c r="P33" s="32" t="s">
         <v>18</v>
       </c>
@@ -40537,7 +43201,7 @@
       <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="69">
+      <c r="A35" s="75">
         <v>7</v>
       </c>
       <c r="B35" s="8">
@@ -40553,7 +43217,7 @@
         <v>23</v>
       </c>
       <c r="G35" s="34"/>
-      <c r="H35" s="69">
+      <c r="H35" s="75">
         <v>8</v>
       </c>
       <c r="I35" s="8">
@@ -40569,7 +43233,7 @@
         <v>11</v>
       </c>
       <c r="N35" s="34"/>
-      <c r="O35" s="69">
+      <c r="O35" s="75">
         <v>9</v>
       </c>
       <c r="P35" s="8">
@@ -40581,12 +43245,12 @@
       <c r="R35" s="32">
         <v>88.5</v>
       </c>
-      <c r="S35" s="32">
-        <v>30</v>
+      <c r="S35" s="88">
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="70"/>
+      <c r="A36" s="76"/>
       <c r="B36" s="8">
         <v>1</v>
       </c>
@@ -40600,7 +43264,7 @@
         <v>20</v>
       </c>
       <c r="G36" s="34"/>
-      <c r="H36" s="70"/>
+      <c r="H36" s="76"/>
       <c r="I36" s="8">
         <v>1</v>
       </c>
@@ -40614,7 +43278,7 @@
         <v>12</v>
       </c>
       <c r="N36" s="34"/>
-      <c r="O36" s="70"/>
+      <c r="O36" s="76"/>
       <c r="P36" s="8">
         <v>1</v>
       </c>
@@ -40629,7 +43293,7 @@
       </c>
     </row>
     <row r="37" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="70"/>
+      <c r="A37" s="76"/>
       <c r="B37" s="8">
         <v>1</v>
       </c>
@@ -40643,7 +43307,7 @@
         <v>11</v>
       </c>
       <c r="G37" s="34"/>
-      <c r="H37" s="70"/>
+      <c r="H37" s="76"/>
       <c r="I37" s="8">
         <v>1</v>
       </c>
@@ -40657,7 +43321,7 @@
         <v>16</v>
       </c>
       <c r="N37" s="34"/>
-      <c r="O37" s="70"/>
+      <c r="O37" s="76"/>
       <c r="P37" s="8">
         <v>1</v>
       </c>
@@ -40672,21 +43336,21 @@
       </c>
     </row>
     <row r="38" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="70"/>
+      <c r="A38" s="76"/>
       <c r="B38" s="8">
         <v>1</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D38" s="32">
-        <v>84.6</v>
+      <c r="D38" s="88">
+        <v>91.25</v>
       </c>
       <c r="E38" s="32">
         <v>11</v>
       </c>
       <c r="G38" s="34"/>
-      <c r="H38" s="70"/>
+      <c r="H38" s="76"/>
       <c r="I38" s="8">
         <v>1</v>
       </c>
@@ -40700,7 +43364,7 @@
         <v>18</v>
       </c>
       <c r="N38" s="34"/>
-      <c r="O38" s="70"/>
+      <c r="O38" s="76"/>
       <c r="P38" s="8">
         <v>1</v>
       </c>
@@ -40715,7 +43379,7 @@
       </c>
     </row>
     <row r="39" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="70"/>
+      <c r="A39" s="76"/>
       <c r="B39" s="8">
         <v>2</v>
       </c>
@@ -40729,7 +43393,7 @@
         <v>13</v>
       </c>
       <c r="G39" s="34"/>
-      <c r="H39" s="70"/>
+      <c r="H39" s="76"/>
       <c r="I39" s="8">
         <v>2</v>
       </c>
@@ -40743,7 +43407,7 @@
         <v>14</v>
       </c>
       <c r="N39" s="34"/>
-      <c r="O39" s="70"/>
+      <c r="O39" s="76"/>
       <c r="P39" s="8">
         <v>2</v>
       </c>
@@ -40758,7 +43422,7 @@
       </c>
     </row>
     <row r="40" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="70"/>
+      <c r="A40" s="76"/>
       <c r="B40" s="8">
         <v>2</v>
       </c>
@@ -40772,7 +43436,7 @@
         <v>13</v>
       </c>
       <c r="G40" s="34"/>
-      <c r="H40" s="70"/>
+      <c r="H40" s="76"/>
       <c r="I40" s="8">
         <v>2</v>
       </c>
@@ -40786,7 +43450,7 @@
         <v>18</v>
       </c>
       <c r="N40" s="34"/>
-      <c r="O40" s="70"/>
+      <c r="O40" s="76"/>
       <c r="P40" s="8">
         <v>2</v>
       </c>
@@ -40801,7 +43465,7 @@
       </c>
     </row>
     <row r="41" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A41" s="70"/>
+      <c r="A41" s="76"/>
       <c r="B41" s="8">
         <v>2</v>
       </c>
@@ -40815,7 +43479,7 @@
         <v>20</v>
       </c>
       <c r="G41" s="34"/>
-      <c r="H41" s="70"/>
+      <c r="H41" s="76"/>
       <c r="I41" s="8">
         <v>2</v>
       </c>
@@ -40829,7 +43493,7 @@
         <v>14</v>
       </c>
       <c r="N41" s="34"/>
-      <c r="O41" s="70"/>
+      <c r="O41" s="76"/>
       <c r="P41" s="8">
         <v>2</v>
       </c>
@@ -40844,7 +43508,7 @@
       </c>
     </row>
     <row r="42" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A42" s="70"/>
+      <c r="A42" s="76"/>
       <c r="B42" s="8">
         <v>2</v>
       </c>
@@ -40858,7 +43522,7 @@
         <v>14</v>
       </c>
       <c r="G42" s="34"/>
-      <c r="H42" s="70"/>
+      <c r="H42" s="76"/>
       <c r="I42" s="8">
         <v>2</v>
       </c>
@@ -40872,7 +43536,7 @@
         <v>17</v>
       </c>
       <c r="N42" s="34"/>
-      <c r="O42" s="70"/>
+      <c r="O42" s="76"/>
       <c r="P42" s="8">
         <v>2</v>
       </c>
@@ -40887,7 +43551,7 @@
       </c>
     </row>
     <row r="43" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A43" s="70"/>
+      <c r="A43" s="76"/>
       <c r="B43" s="8">
         <v>3</v>
       </c>
@@ -40901,7 +43565,7 @@
         <v>10</v>
       </c>
       <c r="G43" s="34"/>
-      <c r="H43" s="70"/>
+      <c r="H43" s="76"/>
       <c r="I43" s="8">
         <v>3</v>
       </c>
@@ -40915,22 +43579,22 @@
         <v>12</v>
       </c>
       <c r="N43" s="34"/>
-      <c r="O43" s="70"/>
+      <c r="O43" s="76"/>
       <c r="P43" s="8">
         <v>3</v>
       </c>
       <c r="Q43" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="R43" s="32">
-        <v>58.1</v>
+      <c r="R43" s="88">
+        <v>80.099999999999994</v>
       </c>
       <c r="S43" s="32">
         <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A44" s="70"/>
+      <c r="A44" s="76"/>
       <c r="B44" s="8">
         <v>3</v>
       </c>
@@ -40944,13 +43608,13 @@
         <v>10</v>
       </c>
       <c r="G44" s="34"/>
-      <c r="H44" s="70"/>
+      <c r="H44" s="76"/>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="32"/>
       <c r="L44" s="32"/>
       <c r="N44" s="34"/>
-      <c r="O44" s="70"/>
+      <c r="O44" s="76"/>
       <c r="P44" s="8">
         <v>3</v>
       </c>
@@ -40965,7 +43629,7 @@
       </c>
     </row>
     <row r="45" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A45" s="70"/>
+      <c r="A45" s="76"/>
       <c r="B45" s="8">
         <v>3</v>
       </c>
@@ -40979,13 +43643,13 @@
         <v>15</v>
       </c>
       <c r="G45" s="34"/>
-      <c r="H45" s="70"/>
+      <c r="H45" s="76"/>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="32"/>
       <c r="L45" s="32"/>
       <c r="N45" s="34"/>
-      <c r="O45" s="70"/>
+      <c r="O45" s="76"/>
       <c r="P45" s="8">
         <v>3</v>
       </c>
@@ -41000,19 +43664,19 @@
       </c>
     </row>
     <row r="46" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A46" s="70"/>
+      <c r="A46" s="76"/>
       <c r="B46" s="32"/>
       <c r="C46" s="8"/>
       <c r="D46" s="32"/>
       <c r="E46" s="32"/>
       <c r="G46" s="34"/>
-      <c r="H46" s="70"/>
+      <c r="H46" s="76"/>
       <c r="I46" s="32"/>
       <c r="J46" s="8"/>
       <c r="K46" s="32"/>
       <c r="L46" s="32"/>
       <c r="N46" s="34"/>
-      <c r="O46" s="70"/>
+      <c r="O46" s="76"/>
       <c r="P46" s="32">
         <v>3</v>
       </c>
@@ -41027,7 +43691,7 @@
       </c>
     </row>
     <row r="47" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A47" s="71"/>
+      <c r="A47" s="77"/>
       <c r="B47" s="32" t="s">
         <v>18</v>
       </c>
@@ -41038,7 +43702,7 @@
       <c r="D47" s="32"/>
       <c r="E47" s="32"/>
       <c r="G47" s="34"/>
-      <c r="H47" s="71"/>
+      <c r="H47" s="77"/>
       <c r="I47" s="32" t="s">
         <v>18</v>
       </c>
@@ -41049,7 +43713,7 @@
       <c r="K47" s="32"/>
       <c r="L47" s="32"/>
       <c r="N47" s="34"/>
-      <c r="O47" s="71"/>
+      <c r="O47" s="77"/>
       <c r="P47" s="32" t="s">
         <v>18</v>
       </c>
@@ -41078,7 +43742,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -41086,7 +43750,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -41109,7 +43773,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="78">
+      <c r="A2" s="84">
         <v>1</v>
       </c>
       <c r="B2" s="8">
@@ -41126,7 +43790,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="70"/>
+      <c r="A3" s="76"/>
       <c r="B3" s="8">
         <v>1</v>
       </c>
@@ -41141,7 +43805,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="70"/>
+      <c r="A4" s="76"/>
       <c r="B4" s="8">
         <v>1</v>
       </c>
@@ -41156,7 +43820,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="70"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="8">
         <v>1</v>
       </c>
@@ -41171,7 +43835,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="70"/>
+      <c r="A6" s="76"/>
       <c r="B6" s="8">
         <v>1</v>
       </c>
@@ -41186,7 +43850,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="70"/>
+      <c r="A7" s="76"/>
       <c r="B7" s="8">
         <v>2</v>
       </c>
@@ -41201,7 +43865,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="70"/>
+      <c r="A8" s="76"/>
       <c r="B8" s="8">
         <v>2</v>
       </c>
@@ -41216,7 +43880,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="70"/>
+      <c r="A9" s="76"/>
       <c r="B9" s="8">
         <v>2</v>
       </c>
@@ -41231,7 +43895,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="70"/>
+      <c r="A10" s="76"/>
       <c r="B10" s="8">
         <v>2</v>
       </c>
@@ -41246,7 +43910,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="70"/>
+      <c r="A11" s="76"/>
       <c r="B11" s="8">
         <v>3</v>
       </c>
@@ -41261,7 +43925,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="70"/>
+      <c r="A12" s="76"/>
       <c r="B12" s="8">
         <v>3</v>
       </c>
@@ -41276,7 +43940,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="71"/>
+      <c r="A13" s="77"/>
       <c r="B13" s="8" t="s">
         <v>18</v>
       </c>
@@ -41296,14 +43960,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -41325,7 +43989,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="78">
+      <c r="A2" s="84">
         <v>2</v>
       </c>
       <c r="B2" s="8">
@@ -41342,7 +44006,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="70"/>
+      <c r="A3" s="76"/>
       <c r="B3" s="8">
         <v>1</v>
       </c>
@@ -41357,7 +44021,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="70"/>
+      <c r="A4" s="76"/>
       <c r="B4" s="8">
         <v>1</v>
       </c>
@@ -41372,7 +44036,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="70"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="8">
         <v>1</v>
       </c>
@@ -41387,7 +44051,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="70"/>
+      <c r="A6" s="76"/>
       <c r="B6" s="8">
         <v>2</v>
       </c>
@@ -41402,7 +44066,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="70"/>
+      <c r="A7" s="76"/>
       <c r="B7" s="8">
         <v>2</v>
       </c>
@@ -41417,7 +44081,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="70"/>
+      <c r="A8" s="76"/>
       <c r="B8" s="8">
         <v>2</v>
       </c>
@@ -41432,7 +44096,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="70"/>
+      <c r="A9" s="76"/>
       <c r="B9" s="8">
         <v>2</v>
       </c>
@@ -41447,7 +44111,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="70"/>
+      <c r="A10" s="76"/>
       <c r="B10" s="8">
         <v>3</v>
       </c>
@@ -41462,7 +44126,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="70"/>
+      <c r="A11" s="76"/>
       <c r="B11" s="8">
         <v>3</v>
       </c>
@@ -41477,7 +44141,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="70"/>
+      <c r="A12" s="76"/>
       <c r="B12" s="8">
         <v>3</v>
       </c>
@@ -41492,7 +44156,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="70"/>
+      <c r="A13" s="76"/>
       <c r="B13" s="8">
         <v>3</v>
       </c>
@@ -41507,7 +44171,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="71"/>
+      <c r="A14" s="77"/>
       <c r="B14" s="8" t="s">
         <v>18</v>
       </c>
@@ -41517,236 +44181,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:A14"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:E14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="78">
-        <v>3</v>
-      </c>
-      <c r="B2" s="8">
-        <v>1</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="8">
-        <v>87.5</v>
-      </c>
-      <c r="E2" s="32">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="70"/>
-      <c r="B3" s="8">
-        <v>1</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="8">
-        <v>104.1</v>
-      </c>
-      <c r="E3" s="32">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="70"/>
-      <c r="B4" s="8">
-        <v>1</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="8">
-        <v>48.4</v>
-      </c>
-      <c r="E4" s="32">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="70"/>
-      <c r="B5" s="8">
-        <v>1</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="8">
-        <v>90.7</v>
-      </c>
-      <c r="E5" s="32">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="70"/>
-      <c r="B6" s="8">
-        <v>2</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="8">
-        <v>63.2</v>
-      </c>
-      <c r="E6" s="32">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="70"/>
-      <c r="B7" s="8">
-        <v>2</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="8">
-        <v>86.1</v>
-      </c>
-      <c r="E7" s="32">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="70"/>
-      <c r="B8" s="8">
-        <v>2</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="8">
-        <v>65.099999999999994</v>
-      </c>
-      <c r="E8" s="32">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="70"/>
-      <c r="B9" s="8">
-        <v>2</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="8">
-        <v>68.900000000000006</v>
-      </c>
-      <c r="E9" s="32">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="70"/>
-      <c r="B10" s="8">
-        <v>3</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="8">
-        <v>74.8</v>
-      </c>
-      <c r="E10" s="32">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="70"/>
-      <c r="B11" s="8">
-        <v>3</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="8">
-        <v>78.3</v>
-      </c>
-      <c r="E11" s="32">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="70"/>
-      <c r="B12" s="8">
-        <v>3</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="8">
-        <v>92.5</v>
-      </c>
-      <c r="E12" s="32">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="70"/>
-      <c r="B13" s="8">
-        <v>3</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="8">
-        <v>59</v>
-      </c>
-      <c r="E13" s="32">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="71"/>
-      <c r="B14" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="32">
-        <f>COUNTIF(C2:C13, "&lt;&gt;")</f>
-        <v>12</v>
-      </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -41757,6 +44191,236 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="84">
+        <v>3</v>
+      </c>
+      <c r="B2" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="8">
+        <v>87.5</v>
+      </c>
+      <c r="E2" s="32">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="76"/>
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="8">
+        <v>104.1</v>
+      </c>
+      <c r="E3" s="32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="76"/>
+      <c r="B4" s="8">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="8">
+        <v>48.4</v>
+      </c>
+      <c r="E4" s="32">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="76"/>
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="8">
+        <v>90.7</v>
+      </c>
+      <c r="E5" s="32">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="76"/>
+      <c r="B6" s="8">
+        <v>2</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="8">
+        <v>63.2</v>
+      </c>
+      <c r="E6" s="32">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="76"/>
+      <c r="B7" s="8">
+        <v>2</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="8">
+        <v>86.1</v>
+      </c>
+      <c r="E7" s="32">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="76"/>
+      <c r="B8" s="8">
+        <v>2</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="8">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="E8" s="32">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="76"/>
+      <c r="B9" s="8">
+        <v>2</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="8">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="E9" s="32">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="76"/>
+      <c r="B10" s="8">
+        <v>3</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="8">
+        <v>74.8</v>
+      </c>
+      <c r="E10" s="32">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="76"/>
+      <c r="B11" s="8">
+        <v>3</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="8">
+        <v>78.3</v>
+      </c>
+      <c r="E11" s="32">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="76"/>
+      <c r="B12" s="8">
+        <v>3</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="8">
+        <v>92.5</v>
+      </c>
+      <c r="E12" s="32">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="76"/>
+      <c r="B13" s="8">
+        <v>3</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="8">
+        <v>59</v>
+      </c>
+      <c r="E13" s="32">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="77"/>
+      <c r="B14" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="32">
+        <f>COUNTIF(C2:C13, "&lt;&gt;")</f>
+        <v>12</v>
+      </c>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -41764,7 +44428,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -41787,7 +44451,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="78">
+      <c r="A2" s="84">
         <v>4</v>
       </c>
       <c r="B2" s="8">
@@ -41804,7 +44468,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="70"/>
+      <c r="A3" s="76"/>
       <c r="B3" s="8">
         <v>1</v>
       </c>
@@ -41819,7 +44483,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="70"/>
+      <c r="A4" s="76"/>
       <c r="B4" s="8">
         <v>1</v>
       </c>
@@ -41834,7 +44498,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="70"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="8">
         <v>1</v>
       </c>
@@ -41849,7 +44513,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="70"/>
+      <c r="A6" s="76"/>
       <c r="B6" s="8">
         <v>2</v>
       </c>
@@ -41864,7 +44528,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="70"/>
+      <c r="A7" s="76"/>
       <c r="B7" s="8">
         <v>2</v>
       </c>
@@ -41879,7 +44543,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="70"/>
+      <c r="A8" s="76"/>
       <c r="B8" s="8">
         <v>2</v>
       </c>
@@ -41894,7 +44558,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="70"/>
+      <c r="A9" s="76"/>
       <c r="B9" s="8">
         <v>2</v>
       </c>
@@ -41909,7 +44573,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="70"/>
+      <c r="A10" s="76"/>
       <c r="B10" s="8">
         <v>3</v>
       </c>
@@ -41924,7 +44588,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="70"/>
+      <c r="A11" s="76"/>
       <c r="B11" s="8">
         <v>3</v>
       </c>
@@ -41939,7 +44603,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="70"/>
+      <c r="A12" s="76"/>
       <c r="B12" s="8">
         <v>3</v>
       </c>
@@ -41954,7 +44618,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="70"/>
+      <c r="A13" s="76"/>
       <c r="B13" s="8">
         <v>3</v>
       </c>
@@ -41969,7 +44633,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="70"/>
+      <c r="A14" s="76"/>
       <c r="B14" s="8">
         <v>4</v>
       </c>
@@ -41984,7 +44648,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="70"/>
+      <c r="A15" s="76"/>
       <c r="B15" s="8">
         <v>4</v>
       </c>
@@ -41999,7 +44663,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="71"/>
+      <c r="A16" s="77"/>
       <c r="B16" s="32" t="s">
         <v>18</v>
       </c>
@@ -42017,237 +44681,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:E14"/>
-  <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="69">
-        <v>5</v>
-      </c>
-      <c r="B2" s="8">
-        <v>1</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="32">
-        <v>67.8</v>
-      </c>
-      <c r="E2" s="32">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="70"/>
-      <c r="B3" s="8">
-        <v>1</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="32">
-        <v>56.4</v>
-      </c>
-      <c r="E3" s="32">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="70"/>
-      <c r="B4" s="8">
-        <v>1</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="32">
-        <v>61.8</v>
-      </c>
-      <c r="E4" s="32">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="70"/>
-      <c r="B5" s="8">
-        <v>1</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="59">
-        <v>101.6</v>
-      </c>
-      <c r="E5" s="32">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="70"/>
-      <c r="B6" s="8">
-        <v>2</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="32">
-        <v>73.900000000000006</v>
-      </c>
-      <c r="E6" s="32">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="70"/>
-      <c r="B7" s="8">
-        <v>2</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="32">
-        <v>108.2</v>
-      </c>
-      <c r="E7" s="32">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="70"/>
-      <c r="B8" s="8">
-        <v>2</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="32">
-        <v>51</v>
-      </c>
-      <c r="E8" s="32">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="70"/>
-      <c r="B9" s="8">
-        <v>2</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="32">
-        <v>89.5</v>
-      </c>
-      <c r="E9" s="32">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="70"/>
-      <c r="B10" s="8">
-        <v>3</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="32">
-        <v>89.5</v>
-      </c>
-      <c r="E10" s="32">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="70"/>
-      <c r="B11" s="8">
-        <v>3</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="32">
-        <v>99.3</v>
-      </c>
-      <c r="E11" s="32">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="70"/>
-      <c r="B12" s="8">
-        <v>3</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="32">
-        <v>57.2</v>
-      </c>
-      <c r="E12" s="32">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="70"/>
-      <c r="B13" s="8">
-        <v>3</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="32">
-        <v>67.8</v>
-      </c>
-      <c r="E13" s="32">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="71"/>
-      <c r="B14" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="32">
-        <f>COUNTIF(C2:C13, "&lt;&gt;")</f>
-        <v>12</v>
-      </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:A14"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>